--- a/tests/advanced/randomized_tests/squareprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/squareprocessed_rand_results_test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="71">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
@@ -102,6 +102,126 @@
   </si>
   <si>
     <t>run 9</t>
+  </si>
+  <si>
+    <t>run 10</t>
+  </si>
+  <si>
+    <t>run 11</t>
+  </si>
+  <si>
+    <t>run 12</t>
+  </si>
+  <si>
+    <t>run 13</t>
+  </si>
+  <si>
+    <t>run 14</t>
+  </si>
+  <si>
+    <t>run 15</t>
+  </si>
+  <si>
+    <t>run 16</t>
+  </si>
+  <si>
+    <t>run 17</t>
+  </si>
+  <si>
+    <t>run 18</t>
+  </si>
+  <si>
+    <t>run 19</t>
+  </si>
+  <si>
+    <t>run 20</t>
+  </si>
+  <si>
+    <t>run 21</t>
+  </si>
+  <si>
+    <t>run 22</t>
+  </si>
+  <si>
+    <t>run 23</t>
+  </si>
+  <si>
+    <t>run 24</t>
+  </si>
+  <si>
+    <t>run 25</t>
+  </si>
+  <si>
+    <t>run 26</t>
+  </si>
+  <si>
+    <t>run 27</t>
+  </si>
+  <si>
+    <t>run 28</t>
+  </si>
+  <si>
+    <t>run 29</t>
+  </si>
+  <si>
+    <t>run 30</t>
+  </si>
+  <si>
+    <t>run 31</t>
+  </si>
+  <si>
+    <t>run 32</t>
+  </si>
+  <si>
+    <t>run 33</t>
+  </si>
+  <si>
+    <t>run 34</t>
+  </si>
+  <si>
+    <t>run 35</t>
+  </si>
+  <si>
+    <t>run 36</t>
+  </si>
+  <si>
+    <t>run 37</t>
+  </si>
+  <si>
+    <t>run 38</t>
+  </si>
+  <si>
+    <t>run 39</t>
+  </si>
+  <si>
+    <t>run 40</t>
+  </si>
+  <si>
+    <t>run 41</t>
+  </si>
+  <si>
+    <t>run 42</t>
+  </si>
+  <si>
+    <t>run 43</t>
+  </si>
+  <si>
+    <t>run 44</t>
+  </si>
+  <si>
+    <t>run 45</t>
+  </si>
+  <si>
+    <t>run 46</t>
+  </si>
+  <si>
+    <t>run 47</t>
+  </si>
+  <si>
+    <t>run 48</t>
+  </si>
+  <si>
+    <t>run 49</t>
   </si>
   <si>
     <t>Average</t>
@@ -465,7 +585,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,19 +628,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>249.604</v>
+        <v>140.496</v>
       </c>
       <c r="C2">
-        <v>249.604</v>
+        <v>140.496</v>
       </c>
       <c r="D2">
-        <v>249.604</v>
+        <v>140.496</v>
       </c>
       <c r="E2">
-        <v>249.604</v>
+        <v>140.496</v>
       </c>
       <c r="F2">
-        <v>249.604</v>
+        <v>140.496</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -543,19 +663,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>268.056</v>
+        <v>148.738</v>
       </c>
       <c r="C3">
-        <v>268.056</v>
+        <v>148.738</v>
       </c>
       <c r="D3">
-        <v>268.056</v>
+        <v>148.738</v>
       </c>
       <c r="E3">
-        <v>268.056</v>
+        <v>148.738</v>
       </c>
       <c r="F3">
-        <v>268.056</v>
+        <v>148.738</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -578,19 +698,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>245.158</v>
+        <v>99.006</v>
       </c>
       <c r="C4">
-        <v>245.158</v>
+        <v>99.006</v>
       </c>
       <c r="D4">
-        <v>245.158</v>
+        <v>99.006</v>
       </c>
       <c r="E4">
-        <v>245.158</v>
+        <v>99.006</v>
       </c>
       <c r="F4">
-        <v>245.158</v>
+        <v>99.006</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -613,19 +733,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>250.05</v>
+        <v>145.91</v>
       </c>
       <c r="C5">
-        <v>250.05</v>
+        <v>145.91</v>
       </c>
       <c r="D5">
-        <v>250.05</v>
+        <v>145.91</v>
       </c>
       <c r="E5">
-        <v>250.05</v>
+        <v>145.91</v>
       </c>
       <c r="F5">
-        <v>250.05</v>
+        <v>145.91</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -648,19 +768,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>241.7759999999999</v>
+        <v>161.802</v>
       </c>
       <c r="C6">
-        <v>241.7759999999999</v>
+        <v>161.802</v>
       </c>
       <c r="D6">
-        <v>241.7759999999999</v>
+        <v>161.802</v>
       </c>
       <c r="E6">
-        <v>241.7759999999999</v>
+        <v>161.802</v>
       </c>
       <c r="F6">
-        <v>241.7759999999999</v>
+        <v>161.802</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -683,19 +803,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>246.1900000000001</v>
+        <v>142.082</v>
       </c>
       <c r="C7">
-        <v>246.1900000000001</v>
+        <v>142.082</v>
       </c>
       <c r="D7">
-        <v>246.1900000000001</v>
+        <v>142.082</v>
       </c>
       <c r="E7">
-        <v>246.1900000000001</v>
+        <v>142.082</v>
       </c>
       <c r="F7">
-        <v>246.1900000000001</v>
+        <v>142.082</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -718,19 +838,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>253.33</v>
+        <v>139.356</v>
       </c>
       <c r="C8">
-        <v>253.33</v>
+        <v>139.356</v>
       </c>
       <c r="D8">
-        <v>253.33</v>
+        <v>139.356</v>
       </c>
       <c r="E8">
-        <v>253.33</v>
+        <v>139.356</v>
       </c>
       <c r="F8">
-        <v>253.33</v>
+        <v>139.356</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -753,19 +873,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>248.948</v>
+        <v>139.146</v>
       </c>
       <c r="C9">
-        <v>248.948</v>
+        <v>139.146</v>
       </c>
       <c r="D9">
-        <v>248.948</v>
+        <v>139.146</v>
       </c>
       <c r="E9">
-        <v>248.948</v>
+        <v>139.146</v>
       </c>
       <c r="F9">
-        <v>248.948</v>
+        <v>139.146</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -788,19 +908,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>232.082</v>
+        <v>139.872</v>
       </c>
       <c r="C10">
-        <v>232.082</v>
+        <v>139.872</v>
       </c>
       <c r="D10">
-        <v>232.082</v>
+        <v>139.872</v>
       </c>
       <c r="E10">
-        <v>232.082</v>
+        <v>139.872</v>
       </c>
       <c r="F10">
-        <v>232.082</v>
+        <v>139.872</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -823,19 +943,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>237.05</v>
+        <v>118.318</v>
       </c>
       <c r="C11">
-        <v>237.05</v>
+        <v>118.318</v>
       </c>
       <c r="D11">
-        <v>237.05</v>
+        <v>118.318</v>
       </c>
       <c r="E11">
-        <v>237.05</v>
+        <v>118.318</v>
       </c>
       <c r="F11">
-        <v>237.05</v>
+        <v>118.318</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -850,6 +970,1406 @@
         <v>0</v>
       </c>
       <c r="K11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>142.286</v>
+      </c>
+      <c r="C12">
+        <v>142.286</v>
+      </c>
+      <c r="D12">
+        <v>142.286</v>
+      </c>
+      <c r="E12">
+        <v>142.286</v>
+      </c>
+      <c r="F12">
+        <v>142.286</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>133.942</v>
+      </c>
+      <c r="C13">
+        <v>133.942</v>
+      </c>
+      <c r="D13">
+        <v>133.942</v>
+      </c>
+      <c r="E13">
+        <v>133.942</v>
+      </c>
+      <c r="F13">
+        <v>133.942</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>104.662</v>
+      </c>
+      <c r="C14">
+        <v>104.662</v>
+      </c>
+      <c r="D14">
+        <v>104.662</v>
+      </c>
+      <c r="E14">
+        <v>104.662</v>
+      </c>
+      <c r="F14">
+        <v>104.662</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>122.63</v>
+      </c>
+      <c r="C15">
+        <v>122.63</v>
+      </c>
+      <c r="D15">
+        <v>122.63</v>
+      </c>
+      <c r="E15">
+        <v>122.63</v>
+      </c>
+      <c r="F15">
+        <v>122.63</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>123.286</v>
+      </c>
+      <c r="C16">
+        <v>123.286</v>
+      </c>
+      <c r="D16">
+        <v>123.286</v>
+      </c>
+      <c r="E16">
+        <v>123.286</v>
+      </c>
+      <c r="F16">
+        <v>123.286</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>145.528</v>
+      </c>
+      <c r="C17">
+        <v>145.528</v>
+      </c>
+      <c r="D17">
+        <v>145.528</v>
+      </c>
+      <c r="E17">
+        <v>145.528</v>
+      </c>
+      <c r="F17">
+        <v>145.528</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>119.458</v>
+      </c>
+      <c r="C18">
+        <v>119.458</v>
+      </c>
+      <c r="D18">
+        <v>119.458</v>
+      </c>
+      <c r="E18">
+        <v>119.458</v>
+      </c>
+      <c r="F18">
+        <v>119.458</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>115.076</v>
+      </c>
+      <c r="C19">
+        <v>115.076</v>
+      </c>
+      <c r="D19">
+        <v>115.076</v>
+      </c>
+      <c r="E19">
+        <v>115.076</v>
+      </c>
+      <c r="F19">
+        <v>115.076</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>124.42</v>
+      </c>
+      <c r="C20">
+        <v>124.42</v>
+      </c>
+      <c r="D20">
+        <v>124.42</v>
+      </c>
+      <c r="E20">
+        <v>124.42</v>
+      </c>
+      <c r="F20">
+        <v>124.42</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>127.178</v>
+      </c>
+      <c r="C21">
+        <v>127.178</v>
+      </c>
+      <c r="D21">
+        <v>127.178</v>
+      </c>
+      <c r="E21">
+        <v>127.178</v>
+      </c>
+      <c r="F21">
+        <v>127.178</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>148.56</v>
+      </c>
+      <c r="C22">
+        <v>148.56</v>
+      </c>
+      <c r="D22">
+        <v>148.56</v>
+      </c>
+      <c r="E22">
+        <v>148.56</v>
+      </c>
+      <c r="F22">
+        <v>148.56</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>140.732</v>
+      </c>
+      <c r="C23">
+        <v>140.732</v>
+      </c>
+      <c r="D23">
+        <v>140.732</v>
+      </c>
+      <c r="E23">
+        <v>140.732</v>
+      </c>
+      <c r="F23">
+        <v>140.732</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>159.974</v>
+      </c>
+      <c r="C24">
+        <v>159.974</v>
+      </c>
+      <c r="D24">
+        <v>159.974</v>
+      </c>
+      <c r="E24">
+        <v>159.974</v>
+      </c>
+      <c r="F24">
+        <v>159.974</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>105.006</v>
+      </c>
+      <c r="C25">
+        <v>105.006</v>
+      </c>
+      <c r="D25">
+        <v>105.006</v>
+      </c>
+      <c r="E25">
+        <v>105.006</v>
+      </c>
+      <c r="F25">
+        <v>105.006</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>121.286</v>
+      </c>
+      <c r="C26">
+        <v>121.286</v>
+      </c>
+      <c r="D26">
+        <v>121.286</v>
+      </c>
+      <c r="E26">
+        <v>121.286</v>
+      </c>
+      <c r="F26">
+        <v>121.286</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>120.146</v>
+      </c>
+      <c r="C27">
+        <v>120.146</v>
+      </c>
+      <c r="D27">
+        <v>120.146</v>
+      </c>
+      <c r="E27">
+        <v>120.146</v>
+      </c>
+      <c r="F27">
+        <v>120.146</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>149.426</v>
+      </c>
+      <c r="C28">
+        <v>149.426</v>
+      </c>
+      <c r="D28">
+        <v>149.426</v>
+      </c>
+      <c r="E28">
+        <v>149.426</v>
+      </c>
+      <c r="F28">
+        <v>149.426</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>124.388</v>
+      </c>
+      <c r="C29">
+        <v>124.388</v>
+      </c>
+      <c r="D29">
+        <v>124.388</v>
+      </c>
+      <c r="E29">
+        <v>124.388</v>
+      </c>
+      <c r="F29">
+        <v>124.388</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>143.974</v>
+      </c>
+      <c r="C30">
+        <v>143.974</v>
+      </c>
+      <c r="D30">
+        <v>143.974</v>
+      </c>
+      <c r="E30">
+        <v>143.974</v>
+      </c>
+      <c r="F30">
+        <v>143.974</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>110.974</v>
+      </c>
+      <c r="C31">
+        <v>110.974</v>
+      </c>
+      <c r="D31">
+        <v>110.974</v>
+      </c>
+      <c r="E31">
+        <v>110.974</v>
+      </c>
+      <c r="F31">
+        <v>110.974</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>137.598</v>
+      </c>
+      <c r="C32">
+        <v>137.598</v>
+      </c>
+      <c r="D32">
+        <v>137.598</v>
+      </c>
+      <c r="E32">
+        <v>137.598</v>
+      </c>
+      <c r="F32">
+        <v>137.598</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>124.598</v>
+      </c>
+      <c r="C33">
+        <v>124.598</v>
+      </c>
+      <c r="D33">
+        <v>124.598</v>
+      </c>
+      <c r="E33">
+        <v>124.598</v>
+      </c>
+      <c r="F33">
+        <v>124.598</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>128.388</v>
+      </c>
+      <c r="C34">
+        <v>128.388</v>
+      </c>
+      <c r="D34">
+        <v>128.388</v>
+      </c>
+      <c r="E34">
+        <v>128.388</v>
+      </c>
+      <c r="F34">
+        <v>128.388</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>144.114</v>
+      </c>
+      <c r="C35">
+        <v>144.114</v>
+      </c>
+      <c r="D35">
+        <v>144.114</v>
+      </c>
+      <c r="E35">
+        <v>144.114</v>
+      </c>
+      <c r="F35">
+        <v>144.114</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>131.834</v>
+      </c>
+      <c r="C36">
+        <v>131.834</v>
+      </c>
+      <c r="D36">
+        <v>131.834</v>
+      </c>
+      <c r="E36">
+        <v>131.834</v>
+      </c>
+      <c r="F36">
+        <v>131.834</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>133.216</v>
+      </c>
+      <c r="C37">
+        <v>133.216</v>
+      </c>
+      <c r="D37">
+        <v>133.216</v>
+      </c>
+      <c r="E37">
+        <v>133.216</v>
+      </c>
+      <c r="F37">
+        <v>133.216</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>118.49</v>
+      </c>
+      <c r="C38">
+        <v>118.49</v>
+      </c>
+      <c r="D38">
+        <v>118.49</v>
+      </c>
+      <c r="E38">
+        <v>118.49</v>
+      </c>
+      <c r="F38">
+        <v>118.49</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>134.044</v>
+      </c>
+      <c r="C39">
+        <v>134.044</v>
+      </c>
+      <c r="D39">
+        <v>134.044</v>
+      </c>
+      <c r="E39">
+        <v>134.044</v>
+      </c>
+      <c r="F39">
+        <v>134.044</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>127.668</v>
+      </c>
+      <c r="C40">
+        <v>127.668</v>
+      </c>
+      <c r="D40">
+        <v>127.668</v>
+      </c>
+      <c r="E40">
+        <v>127.668</v>
+      </c>
+      <c r="F40">
+        <v>127.668</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>86.52199999999999</v>
+      </c>
+      <c r="C41">
+        <v>86.52199999999999</v>
+      </c>
+      <c r="D41">
+        <v>86.52199999999999</v>
+      </c>
+      <c r="E41">
+        <v>86.52199999999999</v>
+      </c>
+      <c r="F41">
+        <v>86.52199999999999</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>137.49</v>
+      </c>
+      <c r="C42">
+        <v>137.49</v>
+      </c>
+      <c r="D42">
+        <v>137.49</v>
+      </c>
+      <c r="E42">
+        <v>137.49</v>
+      </c>
+      <c r="F42">
+        <v>137.49</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>120.216</v>
+      </c>
+      <c r="C43">
+        <v>120.216</v>
+      </c>
+      <c r="D43">
+        <v>120.216</v>
+      </c>
+      <c r="E43">
+        <v>120.216</v>
+      </c>
+      <c r="F43">
+        <v>120.216</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>110.076</v>
+      </c>
+      <c r="C44">
+        <v>110.076</v>
+      </c>
+      <c r="D44">
+        <v>110.076</v>
+      </c>
+      <c r="E44">
+        <v>110.076</v>
+      </c>
+      <c r="F44">
+        <v>110.076</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>129.808</v>
+      </c>
+      <c r="C45">
+        <v>129.808</v>
+      </c>
+      <c r="D45">
+        <v>129.808</v>
+      </c>
+      <c r="E45">
+        <v>129.808</v>
+      </c>
+      <c r="F45">
+        <v>129.808</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>133.834</v>
+      </c>
+      <c r="C46">
+        <v>133.834</v>
+      </c>
+      <c r="D46">
+        <v>133.834</v>
+      </c>
+      <c r="E46">
+        <v>133.834</v>
+      </c>
+      <c r="F46">
+        <v>133.834</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>123.114</v>
+      </c>
+      <c r="C47">
+        <v>123.114</v>
+      </c>
+      <c r="D47">
+        <v>123.114</v>
+      </c>
+      <c r="E47">
+        <v>123.114</v>
+      </c>
+      <c r="F47">
+        <v>123.114</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>120.7</v>
+      </c>
+      <c r="C48">
+        <v>120.7</v>
+      </c>
+      <c r="D48">
+        <v>120.7</v>
+      </c>
+      <c r="E48">
+        <v>120.7</v>
+      </c>
+      <c r="F48">
+        <v>120.7</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>118.802</v>
+      </c>
+      <c r="C49">
+        <v>118.802</v>
+      </c>
+      <c r="D49">
+        <v>118.802</v>
+      </c>
+      <c r="E49">
+        <v>118.802</v>
+      </c>
+      <c r="F49">
+        <v>118.802</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>138.942</v>
+      </c>
+      <c r="C50">
+        <v>138.942</v>
+      </c>
+      <c r="D50">
+        <v>138.942</v>
+      </c>
+      <c r="E50">
+        <v>138.942</v>
+      </c>
+      <c r="F50">
+        <v>138.942</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>134.356</v>
+      </c>
+      <c r="C51">
+        <v>134.356</v>
+      </c>
+      <c r="D51">
+        <v>134.356</v>
+      </c>
+      <c r="E51">
+        <v>134.356</v>
+      </c>
+      <c r="F51">
+        <v>134.356</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="b">
         <v>0</v>
       </c>
     </row>
@@ -860,7 +2380,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K256"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -903,31 +2423,31 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2090</v>
+        <v>1947</v>
       </c>
       <c r="D2">
-        <v>0.003037340356968343</v>
+        <v>0.002489740611054003</v>
       </c>
       <c r="E2">
-        <v>1.086727587971836</v>
+        <v>0.8764934350037947</v>
       </c>
       <c r="F2">
-        <v>2090</v>
+        <v>1947</v>
       </c>
       <c r="G2">
-        <v>0.07768481888342649</v>
+        <v>0.0687358072027564</v>
       </c>
       <c r="H2">
-        <v>0.5999052620027214</v>
+        <v>0.5513664409518242</v>
       </c>
       <c r="I2">
-        <v>0.1072608587564901</v>
+        <v>0.03799037495627999</v>
       </c>
       <c r="J2">
-        <v>0.2006298060296103</v>
+        <v>0.1192334101069719</v>
       </c>
       <c r="K2">
-        <v>0.02496051893103868</v>
+        <v>0.02407789358403534</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -936,31 +2456,31 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D3">
-        <v>0.04308889282401651</v>
+        <v>0.01166254363488406</v>
       </c>
       <c r="E3">
-        <v>0.4332863489398733</v>
+        <v>0.1256131189875305</v>
       </c>
       <c r="F3">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G3">
-        <v>0.009733645361848176</v>
+        <v>0.007343823323026299</v>
       </c>
       <c r="H3">
-        <v>0.1206682570045814</v>
+        <v>0.07380520785227418</v>
       </c>
       <c r="I3">
-        <v>0.1192869477672502</v>
+        <v>0.003785968059673905</v>
       </c>
       <c r="J3">
-        <v>0.1720763477496803</v>
+        <v>0.03056712017860264</v>
       </c>
       <c r="K3">
-        <v>0.002919581951573491</v>
+        <v>0.002452315529808402</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -969,31 +2489,31 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D4">
-        <v>0.04005535715259612</v>
+        <v>0.0431358318310231</v>
       </c>
       <c r="E4">
-        <v>0.3843061010120437</v>
+        <v>0.1582962649408728</v>
       </c>
       <c r="F4">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="G4">
-        <v>0.009125874727033079</v>
+        <v>0.007411319296807051</v>
       </c>
       <c r="H4">
-        <v>0.113375271204859</v>
+        <v>0.1066645070677623</v>
       </c>
       <c r="I4">
-        <v>0.1130729503929615</v>
+        <v>0.003960672649554908</v>
       </c>
       <c r="J4">
-        <v>0.1377554928185418</v>
+        <v>0.02981523389462382</v>
       </c>
       <c r="K4">
-        <v>0.002797295106574893</v>
+        <v>0.00261387403588742</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1002,43 +2522,43 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>2090</v>
+        <v>1947</v>
       </c>
       <c r="D5">
-        <v>0.004428470856510103</v>
+        <v>0.003302903729490936</v>
       </c>
       <c r="E5">
-        <v>1.123848392046057</v>
+        <v>0.8388446239987388</v>
       </c>
       <c r="F5">
-        <v>2090</v>
+        <v>1947</v>
       </c>
       <c r="G5">
-        <v>0.08027568471152335</v>
+        <v>0.06593770708423108</v>
       </c>
       <c r="H5">
-        <v>0.6163056697696447</v>
+        <v>0.5256926183355972</v>
       </c>
       <c r="I5">
-        <v>0.1201486930949613</v>
+        <v>0.04119508515577763</v>
       </c>
       <c r="J5">
-        <v>0.2014315308770165</v>
+        <v>0.1116029534023255</v>
       </c>
       <c r="K5">
-        <v>0.02609655621927232</v>
+        <v>0.02308913902379572</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C6">
-        <v>117045</v>
+        <v>33813</v>
       </c>
       <c r="E6">
-        <v>21.138194948202</v>
+        <v>8.43553137476556</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1049,31 +2569,31 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1915</v>
+        <v>2226</v>
       </c>
       <c r="D7">
-        <v>0.002923340653069317</v>
+        <v>0.002500499947927892</v>
       </c>
       <c r="E7">
-        <v>1.064009019057266</v>
+        <v>0.9389152231160551</v>
       </c>
       <c r="F7">
-        <v>1915</v>
+        <v>2226</v>
       </c>
       <c r="G7">
-        <v>0.07231343595776707</v>
+        <v>0.07420877448748797</v>
       </c>
       <c r="H7">
-        <v>0.5534501582151279</v>
+        <v>0.5967980739660561</v>
       </c>
       <c r="I7">
-        <v>0.1111047239974141</v>
+        <v>0.03718522854615003</v>
       </c>
       <c r="J7">
-        <v>0.2333021716913208</v>
+        <v>0.123101863428019</v>
       </c>
       <c r="K7">
-        <v>0.02329302509315312</v>
+        <v>0.02620333654340357</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1082,31 +2602,31 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="D8">
-        <v>0.04178258136380464</v>
+        <v>0.01366501697339118</v>
       </c>
       <c r="E8">
-        <v>0.4173553810687736</v>
+        <v>0.1394508120138198</v>
       </c>
       <c r="F8">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="G8">
-        <v>0.009098170674405992</v>
+        <v>0.008314767386764288</v>
       </c>
       <c r="H8">
-        <v>0.1132873182650656</v>
+        <v>0.08382827660534531</v>
       </c>
       <c r="I8">
-        <v>0.127285243710503</v>
+        <v>0.004495733883231878</v>
       </c>
       <c r="J8">
-        <v>0.1570929813897237</v>
+        <v>0.03115855064243078</v>
       </c>
       <c r="K8">
-        <v>0.002686213119886816</v>
+        <v>0.002876520738936961</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1115,31 +2635,31 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="D9">
-        <v>0.04818464035633951</v>
+        <v>0.01442506269086152</v>
       </c>
       <c r="E9">
-        <v>0.4349713280098513</v>
+        <v>0.1446338309906423</v>
       </c>
       <c r="F9">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="G9">
-        <v>0.01088513224385679</v>
+        <v>0.008561090216971934</v>
       </c>
       <c r="H9">
-        <v>0.1280818303348497</v>
+        <v>0.08711453329306096</v>
       </c>
       <c r="I9">
-        <v>0.1292349261930212</v>
+        <v>0.00443095585796982</v>
       </c>
       <c r="J9">
-        <v>0.1545946868136525</v>
+        <v>0.03239515528548509</v>
       </c>
       <c r="K9">
-        <v>0.003097603330388665</v>
+        <v>0.00301813893020153</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1148,43 +2668,43 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>1915</v>
+        <v>2226</v>
       </c>
       <c r="D10">
-        <v>0.003922140225768089</v>
+        <v>0.003863614983856678</v>
       </c>
       <c r="E10">
-        <v>1.019534548046067</v>
+        <v>0.9943150440230966</v>
       </c>
       <c r="F10">
-        <v>1915</v>
+        <v>2226</v>
       </c>
       <c r="G10">
-        <v>0.06824849615804851</v>
+        <v>0.07909791637212038</v>
       </c>
       <c r="H10">
-        <v>0.5228636108804494</v>
+        <v>0.6303611820330843</v>
       </c>
       <c r="I10">
-        <v>0.1157153703970835</v>
+        <v>0.0445966407423839</v>
       </c>
       <c r="J10">
-        <v>0.218869918375276</v>
+        <v>0.1280040811980143</v>
       </c>
       <c r="K10">
-        <v>0.02260625583585352</v>
+        <v>0.027416558470577</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C11">
-        <v>117045</v>
+        <v>33813</v>
       </c>
       <c r="E11">
-        <v>21.31407973403111</v>
+        <v>6.674524424830452</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1195,31 +2715,31 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>2145</v>
+        <v>1076</v>
       </c>
       <c r="D12">
-        <v>0.002978474949486554</v>
+        <v>0.001294700196012855</v>
       </c>
       <c r="E12">
-        <v>1.082319545093924</v>
+        <v>0.4543020890560001</v>
       </c>
       <c r="F12">
-        <v>2145</v>
+        <v>1076</v>
       </c>
       <c r="G12">
-        <v>0.07904197706375271</v>
+        <v>0.03498137544374913</v>
       </c>
       <c r="H12">
-        <v>0.598435677937232</v>
+        <v>0.2850243919529021</v>
       </c>
       <c r="I12">
-        <v>0.1035281658405438</v>
+        <v>0.0197771112434566</v>
       </c>
       <c r="J12">
-        <v>0.1977055424358696</v>
+        <v>0.06350484793074429</v>
       </c>
       <c r="K12">
-        <v>0.02574365108739585</v>
+        <v>0.01241422025486827</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1228,31 +2748,31 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>217</v>
+        <v>139</v>
       </c>
       <c r="D13">
-        <v>0.04616238386370242</v>
+        <v>0.008375238277949393</v>
       </c>
       <c r="E13">
-        <v>0.3963630889775231</v>
+        <v>0.08474311302416027</v>
       </c>
       <c r="F13">
-        <v>217</v>
+        <v>139</v>
       </c>
       <c r="G13">
-        <v>0.01031708344817162</v>
+        <v>0.004791810060851276</v>
       </c>
       <c r="H13">
-        <v>0.1242247045738623</v>
+        <v>0.04892425518482924</v>
       </c>
       <c r="I13">
-        <v>0.1143237383803353</v>
+        <v>0.002881785971112549</v>
       </c>
       <c r="J13">
-        <v>0.1359803918749094</v>
+        <v>0.02146449836436659</v>
       </c>
       <c r="K13">
-        <v>0.002911973278969526</v>
+        <v>0.001673820312134922</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1261,31 +2781,31 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>221</v>
+        <v>139</v>
       </c>
       <c r="D14">
-        <v>0.03736175701487809</v>
+        <v>0.008040416403673589</v>
       </c>
       <c r="E14">
-        <v>0.3903126060031354</v>
+        <v>0.08055197494104505</v>
       </c>
       <c r="F14">
-        <v>221</v>
+        <v>139</v>
       </c>
       <c r="G14">
-        <v>0.00839951157104224</v>
+        <v>0.004623675951734185</v>
       </c>
       <c r="H14">
-        <v>0.1042381577426568</v>
+        <v>0.04643008427228779</v>
       </c>
       <c r="I14">
-        <v>0.1093901289859787</v>
+        <v>0.002670875983312726</v>
       </c>
       <c r="J14">
-        <v>0.158240225398913</v>
+        <v>0.02036950166802853</v>
       </c>
       <c r="K14">
-        <v>0.00253237271681428</v>
+        <v>0.00158765516243875</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1294,43 +2814,43 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>2145</v>
+        <v>1076</v>
       </c>
       <c r="D15">
-        <v>0.004505571210756898</v>
+        <v>0.002085516112856567</v>
       </c>
       <c r="E15">
-        <v>1.167061998974532</v>
+        <v>0.48047915706411</v>
       </c>
       <c r="F15">
-        <v>2145</v>
+        <v>1076</v>
       </c>
       <c r="G15">
-        <v>0.08340426499489695</v>
+        <v>0.03723111946601421</v>
       </c>
       <c r="H15">
-        <v>0.64752419188153</v>
+        <v>0.2982290332438424</v>
       </c>
       <c r="I15">
-        <v>0.1206755097955465</v>
+        <v>0.02435009297914803</v>
       </c>
       <c r="J15">
-        <v>0.20535773714073</v>
+        <v>0.0671171642607078</v>
       </c>
       <c r="K15">
-        <v>0.02746935584582388</v>
+        <v>0.01324472052510828</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C16">
-        <v>117045</v>
+        <v>33813</v>
       </c>
       <c r="E16">
-        <v>21.49376910168212</v>
+        <v>6.953128450084478</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1341,31 +2861,31 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>2300</v>
+        <v>2133</v>
       </c>
       <c r="D17">
-        <v>0.00312146928627044</v>
+        <v>0.002544580493122339</v>
       </c>
       <c r="E17">
-        <v>1.195517356973141</v>
+        <v>0.9123904659645632</v>
       </c>
       <c r="F17">
-        <v>2300</v>
+        <v>2133</v>
       </c>
       <c r="G17">
-        <v>0.08584730338770896</v>
+        <v>0.07187719573266804</v>
       </c>
       <c r="H17">
-        <v>0.6675908542238176</v>
+        <v>0.5797693862114102</v>
       </c>
       <c r="I17">
-        <v>0.1089269520016387</v>
+        <v>0.03875290474388748</v>
       </c>
       <c r="J17">
-        <v>0.2206530246185139</v>
+        <v>0.1187489564763382</v>
       </c>
       <c r="K17">
-        <v>0.02778014587238431</v>
+        <v>0.02514838776551187</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1374,31 +2894,31 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>261</v>
+        <v>186</v>
       </c>
       <c r="D18">
-        <v>0.04106692178174853</v>
+        <v>0.01475568546447903</v>
       </c>
       <c r="E18">
-        <v>0.4177085149567574</v>
+        <v>0.134287845925428</v>
       </c>
       <c r="F18">
-        <v>261</v>
+        <v>186</v>
       </c>
       <c r="G18">
-        <v>0.01042996172327548</v>
+        <v>0.007554214680567384</v>
       </c>
       <c r="H18">
-        <v>0.1243998230202124</v>
+        <v>0.08027822698932141</v>
       </c>
       <c r="I18">
-        <v>0.1197146858321503</v>
+        <v>0.00430376292206347</v>
       </c>
       <c r="J18">
-        <v>0.1504368189489469</v>
+        <v>0.03172619850374758</v>
       </c>
       <c r="K18">
-        <v>0.003225550404749811</v>
+        <v>0.002779183443635702</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1407,31 +2927,31 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>261</v>
+        <v>183</v>
       </c>
       <c r="D19">
-        <v>0.04064545093569905</v>
+        <v>0.01259851490613073</v>
       </c>
       <c r="E19">
-        <v>0.429571415996179</v>
+        <v>0.1169205979676917</v>
       </c>
       <c r="F19">
-        <v>261</v>
+        <v>183</v>
       </c>
       <c r="G19">
-        <v>0.01069343648850918</v>
+        <v>0.00638869684189558</v>
       </c>
       <c r="H19">
-        <v>0.1255542847793549</v>
+        <v>0.067719915532507</v>
       </c>
       <c r="I19">
-        <v>0.110367574961856</v>
+        <v>0.003842989564873278</v>
       </c>
       <c r="J19">
-        <v>0.169812398031354</v>
+        <v>0.03011904133018106</v>
       </c>
       <c r="K19">
-        <v>0.003355574212037027</v>
+        <v>0.002258216845802963</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1440,43 +2960,43 @@
         <v>4</v>
       </c>
       <c r="C20">
-        <v>2300</v>
+        <v>2133</v>
       </c>
       <c r="D20">
-        <v>0.004548705415800214</v>
+        <v>0.003804581123404205</v>
       </c>
       <c r="E20">
-        <v>1.205571523983963</v>
+        <v>0.9407475889893249</v>
       </c>
       <c r="F20">
-        <v>2300</v>
+        <v>2133</v>
       </c>
       <c r="G20">
-        <v>0.08585399424191564</v>
+        <v>0.07328010024502873</v>
       </c>
       <c r="H20">
-        <v>0.6636778910178691</v>
+        <v>0.5927605213364586</v>
       </c>
       <c r="I20">
-        <v>0.1237681854981929</v>
+        <v>0.04631167370826006</v>
       </c>
       <c r="J20">
-        <v>0.2191268316237256</v>
+        <v>0.1236551663605496</v>
       </c>
       <c r="K20">
-        <v>0.02810064912773669</v>
+        <v>0.02573104831390083</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C21">
-        <v>117045</v>
+        <v>33813</v>
       </c>
       <c r="E21">
-        <v>20.35904821823351</v>
+        <v>7.666706621763296</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1487,31 +3007,31 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>1995</v>
+        <v>2253</v>
       </c>
       <c r="D22">
-        <v>0.002799296518787742</v>
+        <v>0.002535008476115763</v>
       </c>
       <c r="E22">
-        <v>1.01803013891913</v>
+        <v>0.9917523679323494</v>
       </c>
       <c r="F22">
-        <v>1995</v>
+        <v>2253</v>
       </c>
       <c r="G22">
-        <v>0.07350710849277675</v>
+        <v>0.07369637372903526</v>
       </c>
       <c r="H22">
-        <v>0.5678868186660111</v>
+        <v>0.6347223322372884</v>
       </c>
       <c r="I22">
-        <v>0.09936911414843053</v>
+        <v>0.04411386908032</v>
       </c>
       <c r="J22">
-        <v>0.1810826847795397</v>
+        <v>0.1342906149802729</v>
       </c>
       <c r="K22">
-        <v>0.02382920996751636</v>
+        <v>0.02601263939868659</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1520,31 +3040,31 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="D23">
-        <v>0.03733371559064835</v>
+        <v>0.01258871715981513</v>
       </c>
       <c r="E23">
-        <v>0.402972127078101</v>
+        <v>0.1422745629679412</v>
       </c>
       <c r="F23">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="G23">
-        <v>0.008957677986472845</v>
+        <v>0.007894850103184581</v>
       </c>
       <c r="H23">
-        <v>0.1078460657736287</v>
+        <v>0.07924169732723385</v>
       </c>
       <c r="I23">
-        <v>0.1151123949093744</v>
+        <v>0.004541457863524556</v>
       </c>
       <c r="J23">
-        <v>0.160561858327128</v>
+        <v>0.03948544338345528</v>
       </c>
       <c r="K23">
-        <v>0.00267622631508857</v>
+        <v>0.002781356801278889</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1553,31 +3073,31 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="D24">
-        <v>0.03824450029060245</v>
+        <v>0.01324373029638082</v>
       </c>
       <c r="E24">
-        <v>0.3723571699811146</v>
+        <v>0.1414664780022576</v>
       </c>
       <c r="F24">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="G24">
-        <v>0.008771103224717081</v>
+        <v>0.007837262353859842</v>
       </c>
       <c r="H24">
-        <v>0.1068801342044026</v>
+        <v>0.07958870567381382</v>
       </c>
       <c r="I24">
-        <v>0.1132907435530797</v>
+        <v>0.004589002346619964</v>
       </c>
       <c r="J24">
-        <v>0.1329221880296245</v>
+        <v>0.03856133797671646</v>
       </c>
       <c r="K24">
-        <v>0.00266613787971437</v>
+        <v>0.002718714764341712</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1586,43 +3106,43 @@
         <v>4</v>
       </c>
       <c r="C25">
-        <v>1995</v>
+        <v>2253</v>
       </c>
       <c r="D25">
-        <v>0.004208164173178375</v>
+        <v>0.003746101981960237</v>
       </c>
       <c r="E25">
-        <v>1.061597795924172</v>
+        <v>0.9854157470399514</v>
       </c>
       <c r="F25">
-        <v>1995</v>
+        <v>2253</v>
       </c>
       <c r="G25">
-        <v>0.07472998555749655</v>
+        <v>0.07526521268300712</v>
       </c>
       <c r="H25">
-        <v>0.572901954757981</v>
+        <v>0.6128135916078463</v>
       </c>
       <c r="I25">
-        <v>0.1186982407234609</v>
+        <v>0.05206369457300752</v>
       </c>
       <c r="J25">
-        <v>0.1941401672083884</v>
+        <v>0.1374052247265354</v>
       </c>
       <c r="K25">
-        <v>0.02444120007567108</v>
+        <v>0.02653189119882882</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C26">
-        <v>117045</v>
+        <v>33813</v>
       </c>
       <c r="E26">
-        <v>22.48382662446238</v>
+        <v>5.864241221221164</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1633,31 +3153,31 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>2299</v>
+        <v>2190</v>
       </c>
       <c r="D27">
-        <v>0.00292241491843015</v>
+        <v>0.00266059348359704</v>
       </c>
       <c r="E27">
-        <v>1.144761711009778</v>
+        <v>0.9558280379278585</v>
       </c>
       <c r="F27">
-        <v>2299</v>
+        <v>2190</v>
       </c>
       <c r="G27">
-        <v>0.08217283117119223</v>
+        <v>0.07495430705603212</v>
       </c>
       <c r="H27">
-        <v>0.624116713530384</v>
+        <v>0.6106997379101813</v>
       </c>
       <c r="I27">
-        <v>0.09500410140026361</v>
+        <v>0.03848165599629283</v>
       </c>
       <c r="J27">
-        <v>0.2349979091668501</v>
+        <v>0.1240773967001587</v>
       </c>
       <c r="K27">
-        <v>0.02695182163733989</v>
+        <v>0.02651288930792361</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1666,31 +3186,31 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>237</v>
+        <v>186</v>
       </c>
       <c r="D28">
-        <v>0.03872531128581613</v>
+        <v>0.0117874916177243</v>
       </c>
       <c r="E28">
-        <v>0.4018509440356866</v>
+        <v>0.1099899020045996</v>
       </c>
       <c r="F28">
-        <v>237</v>
+        <v>186</v>
       </c>
       <c r="G28">
-        <v>0.009648489532992244</v>
+        <v>0.006247042794711888</v>
       </c>
       <c r="H28">
-        <v>0.1126618342241272</v>
+        <v>0.06593356921803206</v>
       </c>
       <c r="I28">
-        <v>0.1181500839302316</v>
+        <v>0.003658684785477817</v>
       </c>
       <c r="J28">
-        <v>0.1500325176166371</v>
+        <v>0.02540843607857823</v>
       </c>
       <c r="K28">
-        <v>0.002832814818248153</v>
+        <v>0.002217861823737621</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1699,31 +3219,31 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>235</v>
+        <v>180</v>
       </c>
       <c r="D29">
-        <v>0.04061791638378054</v>
+        <v>0.01202293334063143</v>
       </c>
       <c r="E29">
-        <v>0.4252657189499587</v>
+        <v>0.1106746629811823</v>
       </c>
       <c r="F29">
-        <v>235</v>
+        <v>180</v>
       </c>
       <c r="G29">
-        <v>0.009465851588174701</v>
+        <v>0.006235622800886631</v>
       </c>
       <c r="H29">
-        <v>0.116252604057081</v>
+        <v>0.06618724146392196</v>
       </c>
       <c r="I29">
-        <v>0.1307180951116607</v>
+        <v>0.0034966025268659</v>
       </c>
       <c r="J29">
-        <v>0.1571318655041978</v>
+        <v>0.02608498057816178</v>
       </c>
       <c r="K29">
-        <v>0.00298924301750958</v>
+        <v>0.002170688007026911</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1732,43 +3252,43 @@
         <v>4</v>
       </c>
       <c r="C30">
-        <v>2299</v>
+        <v>2190</v>
       </c>
       <c r="D30">
-        <v>0.004404981969855726</v>
+        <v>0.00377218727953732</v>
       </c>
       <c r="E30">
-        <v>1.212319870945066</v>
+        <v>0.9428178960224614</v>
       </c>
       <c r="F30">
-        <v>2299</v>
+        <v>2190</v>
       </c>
       <c r="G30">
-        <v>0.08559269015677273</v>
+        <v>0.07295941945631057</v>
       </c>
       <c r="H30">
-        <v>0.6610835586907342</v>
+        <v>0.5991150722838938</v>
       </c>
       <c r="I30">
-        <v>0.1316804175730795</v>
+        <v>0.04354569374118</v>
       </c>
       <c r="J30">
-        <v>0.2213183846324682</v>
+        <v>0.1230417191982269</v>
       </c>
       <c r="K30">
-        <v>0.02792508236598223</v>
+        <v>0.02569512755144387</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C31">
-        <v>117045</v>
+        <v>33813</v>
       </c>
       <c r="E31">
-        <v>22.00597085419577</v>
+        <v>5.976069454103708</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1779,31 +3299,31 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>2043</v>
+        <v>2035</v>
       </c>
       <c r="D32">
-        <v>0.003034295979887247</v>
+        <v>0.002406632294878364</v>
       </c>
       <c r="E32">
-        <v>1.111815573996864</v>
+        <v>0.8932209690101445</v>
       </c>
       <c r="F32">
-        <v>2043</v>
+        <v>2035</v>
       </c>
       <c r="G32">
-        <v>0.07721090491395444</v>
+        <v>0.06712333869654685</v>
       </c>
       <c r="H32">
-        <v>0.6067984297405928</v>
+        <v>0.5741477779811248</v>
       </c>
       <c r="I32">
-        <v>0.106698221177794</v>
+        <v>0.03861887636594474</v>
       </c>
       <c r="J32">
-        <v>0.2203567181713879</v>
+        <v>0.1177151240408421</v>
       </c>
       <c r="K32">
-        <v>0.0250321589410305</v>
+        <v>0.02354333293624222</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1812,31 +3332,31 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D33">
-        <v>0.04155013791751117</v>
+        <v>0.01232371595688164</v>
       </c>
       <c r="E33">
-        <v>0.4565965839428827</v>
+        <v>0.1350326989777386</v>
       </c>
       <c r="F33">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G33">
-        <v>0.009816111181862652</v>
+        <v>0.007879345677793026</v>
       </c>
       <c r="H33">
-        <v>0.1213310776511207</v>
+        <v>0.08110587869305164</v>
       </c>
       <c r="I33">
-        <v>0.1385327694006264</v>
+        <v>0.00388244993519038</v>
       </c>
       <c r="J33">
-        <v>0.1748030119342729</v>
+        <v>0.03106828208547086</v>
       </c>
       <c r="K33">
-        <v>0.003089987090788782</v>
+        <v>0.002801279537379742</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1845,31 +3365,31 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D34">
-        <v>0.04012371343560517</v>
+        <v>0.02200784021988511</v>
       </c>
       <c r="E34">
-        <v>0.4104389169951901</v>
+        <v>0.2108028479851782</v>
       </c>
       <c r="F34">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G34">
-        <v>0.009258350939489901</v>
+        <v>0.01235700829420239</v>
       </c>
       <c r="H34">
-        <v>0.115077759954147</v>
+        <v>0.1257020143093541</v>
       </c>
       <c r="I34">
-        <v>0.1189851264934987</v>
+        <v>0.006062975968234241</v>
       </c>
       <c r="J34">
-        <v>0.1558535289950669</v>
+        <v>0.0493802479468286</v>
       </c>
       <c r="K34">
-        <v>0.002925440319813788</v>
+        <v>0.004256919142790139</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1878,43 +3398,43 @@
         <v>4</v>
       </c>
       <c r="C35">
-        <v>2043</v>
+        <v>2035</v>
       </c>
       <c r="D35">
-        <v>0.004174742032773793</v>
+        <v>0.003660882357507944</v>
       </c>
       <c r="E35">
-        <v>1.080389891052619</v>
+        <v>0.9263602730352432</v>
       </c>
       <c r="F35">
-        <v>2043</v>
+        <v>2035</v>
       </c>
       <c r="G35">
-        <v>0.07472643337678164</v>
+        <v>0.07089943101163954</v>
       </c>
       <c r="H35">
-        <v>0.5787778334924951</v>
+        <v>0.5810208963230252</v>
       </c>
       <c r="I35">
-        <v>0.1186899996828288</v>
+        <v>0.04790867317933589</v>
       </c>
       <c r="J35">
-        <v>0.2102239263476804</v>
+        <v>0.1253402212169021</v>
       </c>
       <c r="K35">
-        <v>0.02451763849239796</v>
+        <v>0.02501420676708221</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C36">
-        <v>117045</v>
+        <v>33813</v>
       </c>
       <c r="E36">
-        <v>20.97551219677553</v>
+        <v>8.663199727772735</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1925,31 +3445,31 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>2462</v>
+        <v>2123</v>
       </c>
       <c r="D37">
-        <v>0.003078781766816974</v>
+        <v>0.002530331956222653</v>
       </c>
       <c r="E37">
-        <v>1.185379762086086</v>
+        <v>0.9413746339268982</v>
       </c>
       <c r="F37">
-        <v>2462</v>
+        <v>2123</v>
       </c>
       <c r="G37">
-        <v>0.0876023571472615</v>
+        <v>0.07098839664831758</v>
       </c>
       <c r="H37">
-        <v>0.676780742011033</v>
+        <v>0.6137206399580464</v>
       </c>
       <c r="I37">
-        <v>0.09837334894109517</v>
+        <v>0.03635699406731874</v>
       </c>
       <c r="J37">
-        <v>0.2072593721095473</v>
+        <v>0.1180980729404837</v>
       </c>
       <c r="K37">
-        <v>0.02874693460762501</v>
+        <v>0.02542663156054914</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1958,31 +3478,31 @@
         <v>2</v>
       </c>
       <c r="C38">
-        <v>269</v>
+        <v>181</v>
       </c>
       <c r="D38">
-        <v>0.03879078361205757</v>
+        <v>0.01143735903315246</v>
       </c>
       <c r="E38">
-        <v>0.3862391549628228</v>
+        <v>0.1111883160192519</v>
       </c>
       <c r="F38">
-        <v>269</v>
+        <v>181</v>
       </c>
       <c r="G38">
-        <v>0.009960874915122986</v>
+        <v>0.006288684438914061</v>
       </c>
       <c r="H38">
-        <v>0.1189361442811787</v>
+        <v>0.06564564385917038</v>
       </c>
       <c r="I38">
-        <v>0.1087877345271409</v>
+        <v>0.003540143021382391</v>
       </c>
       <c r="J38">
-        <v>0.1364101585932076</v>
+        <v>0.02707422431558371</v>
       </c>
       <c r="K38">
-        <v>0.003080958034843206</v>
+        <v>0.002217070432379842</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1991,31 +3511,31 @@
         <v>3</v>
       </c>
       <c r="C39">
-        <v>273</v>
+        <v>181</v>
       </c>
       <c r="D39">
-        <v>0.04110244289040565</v>
+        <v>0.01150089257862419</v>
       </c>
       <c r="E39">
-        <v>0.4011844709748402</v>
+        <v>0.1132276329444721</v>
       </c>
       <c r="F39">
-        <v>273</v>
+        <v>181</v>
       </c>
       <c r="G39">
-        <v>0.01083243114408106</v>
+        <v>0.006439486634917557</v>
       </c>
       <c r="H39">
-        <v>0.1281035244464874</v>
+        <v>0.06683358829468489</v>
       </c>
       <c r="I39">
-        <v>0.1108368625864387</v>
+        <v>0.003728643758222461</v>
       </c>
       <c r="J39">
-        <v>0.1383244264870882</v>
+        <v>0.02727661014068872</v>
       </c>
       <c r="K39">
-        <v>0.003302864264696836</v>
+        <v>0.002210810780525208</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2024,43 +3544,43 @@
         <v>4</v>
       </c>
       <c r="C40">
-        <v>2462</v>
+        <v>2123</v>
       </c>
       <c r="D40">
-        <v>0.004549356177449226</v>
+        <v>0.003619210561737418</v>
       </c>
       <c r="E40">
-        <v>1.19109643693082</v>
+        <v>0.9103050129488111</v>
       </c>
       <c r="F40">
-        <v>2462</v>
+        <v>2123</v>
       </c>
       <c r="G40">
-        <v>0.08643655327614397</v>
+        <v>0.07107597135473043</v>
       </c>
       <c r="H40">
-        <v>0.6743320075329393</v>
+        <v>0.5776371788233519</v>
       </c>
       <c r="I40">
-        <v>0.1104522969108075</v>
+        <v>0.04119036451447755</v>
       </c>
       <c r="J40">
-        <v>0.2053857010323554</v>
+        <v>0.1193923940882087</v>
       </c>
       <c r="K40">
-        <v>0.02837857569102198</v>
+        <v>0.02491499402094632</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C41">
-        <v>117045</v>
+        <v>33813</v>
       </c>
       <c r="E41">
-        <v>22.38826434407383</v>
+        <v>6.204478686326183</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2071,31 +3591,31 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>2293</v>
+        <v>1998</v>
       </c>
       <c r="D42">
-        <v>0.002919860067777336</v>
+        <v>0.002494122483767569</v>
       </c>
       <c r="E42">
-        <v>1.104489720892161</v>
+        <v>0.9042584269773215</v>
       </c>
       <c r="F42">
-        <v>2293</v>
+        <v>1998</v>
       </c>
       <c r="G42">
-        <v>0.08064691687468439</v>
+        <v>0.07035240391269326</v>
       </c>
       <c r="H42">
-        <v>0.6299442501040176</v>
+        <v>0.5713464558357373</v>
       </c>
       <c r="I42">
-        <v>0.08906216581817716</v>
+        <v>0.03794752084650099</v>
       </c>
       <c r="J42">
-        <v>0.1978303227806464</v>
+        <v>0.1237282854272053</v>
       </c>
       <c r="K42">
-        <v>0.02641896635759622</v>
+        <v>0.02488017582800239</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2104,31 +3624,31 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="D43">
-        <v>0.03924117120914161</v>
+        <v>0.01173206779640168</v>
       </c>
       <c r="E43">
-        <v>0.3462470080703497</v>
+        <v>0.125339234014973</v>
       </c>
       <c r="F43">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="G43">
-        <v>0.009749800898134708</v>
+        <v>0.007170690456405282</v>
       </c>
       <c r="H43">
-        <v>0.1150656372774392</v>
+        <v>0.07301424257457256</v>
       </c>
       <c r="I43">
-        <v>0.09322370577137917</v>
+        <v>0.003806645283475518</v>
       </c>
       <c r="J43">
-        <v>0.1167626667302102</v>
+        <v>0.03124323720112443</v>
       </c>
       <c r="K43">
-        <v>0.002903527114540339</v>
+        <v>0.00245555117726326</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2137,31 +3657,31 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="D44">
-        <v>0.03861085185781121</v>
+        <v>0.01180012174881995</v>
       </c>
       <c r="E44">
-        <v>0.3466632399940863</v>
+        <v>0.1254669619956985</v>
       </c>
       <c r="F44">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="G44">
-        <v>0.009320763288997114</v>
+        <v>0.007002516533248127</v>
       </c>
       <c r="H44">
-        <v>0.1119628782616928</v>
+        <v>0.07213399047031999</v>
       </c>
       <c r="I44">
-        <v>0.09738034370820969</v>
+        <v>0.00387576303910464</v>
       </c>
       <c r="J44">
-        <v>0.1169660669984296</v>
+        <v>0.03269000537693501</v>
       </c>
       <c r="K44">
-        <v>0.002811108715832233</v>
+        <v>0.002511051832698286</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2170,43 +3690,43 @@
         <v>4</v>
       </c>
       <c r="C45">
-        <v>2293</v>
+        <v>1998</v>
       </c>
       <c r="D45">
-        <v>0.004234047373756766</v>
+        <v>0.003472460666671395</v>
       </c>
       <c r="E45">
-        <v>1.094690338009968</v>
+        <v>0.8744891110109165</v>
       </c>
       <c r="F45">
-        <v>2293</v>
+        <v>1998</v>
       </c>
       <c r="G45">
-        <v>0.07962956978008151</v>
+        <v>0.06749365909490734</v>
       </c>
       <c r="H45">
-        <v>0.6183560681529343</v>
+        <v>0.5515697379596531</v>
       </c>
       <c r="I45">
-        <v>0.09832945931702852</v>
+        <v>0.04268124408554286</v>
       </c>
       <c r="J45">
-        <v>0.1889956233790144</v>
+        <v>0.1155931926332414</v>
       </c>
       <c r="K45">
-        <v>0.02655263105407357</v>
+        <v>0.0241451773326844</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C46">
-        <v>117045</v>
+        <v>33813</v>
       </c>
       <c r="E46">
-        <v>23.15156052412931</v>
+        <v>6.090142698842101</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2217,31 +3737,31 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>2149</v>
+        <v>1966</v>
       </c>
       <c r="D47">
-        <v>0.002765013603493571</v>
+        <v>0.002292231190949678</v>
       </c>
       <c r="E47">
-        <v>1.053691486013122</v>
+        <v>0.8570590870222077</v>
       </c>
       <c r="F47">
-        <v>2149</v>
+        <v>1966</v>
       </c>
       <c r="G47">
-        <v>0.07503301440738142</v>
+        <v>0.06742107344325632</v>
       </c>
       <c r="H47">
-        <v>0.6079940344206989</v>
+        <v>0.545853701652959</v>
       </c>
       <c r="I47">
-        <v>0.09120614896528423</v>
+        <v>0.03194386407267302</v>
       </c>
       <c r="J47">
-        <v>0.1813957982230932</v>
+        <v>0.1159865445224568</v>
       </c>
       <c r="K47">
-        <v>0.02424143091775477</v>
+        <v>0.02354371838737279</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2250,31 +3770,31 @@
         <v>2</v>
       </c>
       <c r="C48">
-        <v>243</v>
+        <v>183</v>
       </c>
       <c r="D48">
-        <v>0.0390400675823912</v>
+        <v>0.04119068395812064</v>
       </c>
       <c r="E48">
-        <v>0.383252884959802</v>
+        <v>0.1474428030196577</v>
       </c>
       <c r="F48">
-        <v>243</v>
+        <v>183</v>
       </c>
       <c r="G48">
-        <v>0.009973002364858985</v>
+        <v>0.006996559328399599</v>
       </c>
       <c r="H48">
-        <v>0.1183447727235034</v>
+        <v>0.09906840138137341</v>
       </c>
       <c r="I48">
-        <v>0.11321161466185</v>
+        <v>0.003784617874771357</v>
       </c>
       <c r="J48">
-        <v>0.1296969320392236</v>
+        <v>0.02788821281865239</v>
       </c>
       <c r="K48">
-        <v>0.003018419607542455</v>
+        <v>0.002409839071333408</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2283,31 +3803,31 @@
         <v>3</v>
       </c>
       <c r="C49">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="D49">
-        <v>0.04132037970703095</v>
+        <v>0.01042587962001562</v>
       </c>
       <c r="E49">
-        <v>0.388674232061021</v>
+        <v>0.1069845169549808</v>
       </c>
       <c r="F49">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="G49">
-        <v>0.01014779496472329</v>
+        <v>0.006289552547968924</v>
       </c>
       <c r="H49">
-        <v>0.1224841371877119</v>
+        <v>0.06503564841113985</v>
       </c>
       <c r="I49">
-        <v>0.1102978033013642</v>
+        <v>0.003274109098128974</v>
       </c>
       <c r="J49">
-        <v>0.1336722215637565</v>
+        <v>0.02360106247942895</v>
       </c>
       <c r="K49">
-        <v>0.003090674639679492</v>
+        <v>0.002177796326577663</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2316,43 +3836,43 @@
         <v>4</v>
       </c>
       <c r="C50">
-        <v>2149</v>
+        <v>1966</v>
       </c>
       <c r="D50">
-        <v>0.003890920663252473</v>
+        <v>0.003843629965558648</v>
       </c>
       <c r="E50">
-        <v>1.031105372007005</v>
+        <v>0.9537616650341079</v>
       </c>
       <c r="F50">
-        <v>2149</v>
+        <v>1966</v>
       </c>
       <c r="G50">
-        <v>0.07493000326212496</v>
+        <v>0.07383916131220758</v>
       </c>
       <c r="H50">
-        <v>0.5725511201890185</v>
+        <v>0.6081986990757287</v>
       </c>
       <c r="I50">
-        <v>0.1016790181165561</v>
+        <v>0.04289078887086362</v>
       </c>
       <c r="J50">
-        <v>0.1792539965827018</v>
+        <v>0.1218026789138094</v>
       </c>
       <c r="K50">
-        <v>0.02490207634400576</v>
+        <v>0.02624259470030665</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C51">
-        <v>117045</v>
+        <v>33813</v>
       </c>
       <c r="E51">
-        <v>22.18853807228152</v>
+        <v>6.147936056833714</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2363,31 +3883,31 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>2169.1</v>
+        <v>2167</v>
       </c>
       <c r="D52">
-        <v>0.002958028810098767</v>
+        <v>0.00247284525539726</v>
       </c>
       <c r="E52">
-        <v>1.104674190201331</v>
+        <v>0.9420137589331716</v>
       </c>
       <c r="F52">
-        <v>2169.1</v>
+        <v>2167</v>
       </c>
       <c r="G52">
-        <v>0.07910606682999059</v>
+        <v>0.07022341876290739</v>
       </c>
       <c r="H52">
-        <v>0.6132902940851637</v>
+        <v>0.608846522285603</v>
       </c>
       <c r="I52">
-        <v>0.1010533801047131</v>
+        <v>0.03839550819247961</v>
       </c>
       <c r="J52">
-        <v>0.2075213350006379</v>
+        <v>0.1232122885994613</v>
       </c>
       <c r="K52">
-        <v>0.02569978634128347</v>
+        <v>0.02486704790499061</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2396,31 +3916,31 @@
         <v>2</v>
       </c>
       <c r="C53">
-        <v>236.1</v>
+        <v>258</v>
       </c>
       <c r="D53">
-        <v>0.04067819670308381</v>
+        <v>0.01499733189120889</v>
       </c>
       <c r="E53">
-        <v>0.4041872036992572</v>
+        <v>0.1639804469887167</v>
       </c>
       <c r="F53">
-        <v>236.1</v>
+        <v>258</v>
       </c>
       <c r="G53">
-        <v>0.009768481808714568</v>
+        <v>0.00925143517088145</v>
       </c>
       <c r="H53">
-        <v>0.1176765634794719</v>
+        <v>0.09521649882663041</v>
       </c>
       <c r="I53">
-        <v>0.1167628918890841</v>
+        <v>0.004893459961749613</v>
       </c>
       <c r="J53">
-        <v>0.148385368520394</v>
+        <v>0.04140687931794673</v>
       </c>
       <c r="K53">
-        <v>0.002934525173623115</v>
+        <v>0.003343651769682765</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2429,31 +3949,31 @@
         <v>3</v>
       </c>
       <c r="C54">
-        <v>238.6</v>
+        <v>282</v>
       </c>
       <c r="D54">
-        <v>0.04062670100247488</v>
+        <v>0.01467629580292851</v>
       </c>
       <c r="E54">
-        <v>0.398374519997742</v>
+        <v>0.1573789149988443</v>
       </c>
       <c r="F54">
-        <v>238.6</v>
+        <v>282</v>
       </c>
       <c r="G54">
-        <v>0.009690025018062442</v>
+        <v>0.009338223841041327</v>
       </c>
       <c r="H54">
-        <v>0.1172010582173243</v>
+        <v>0.09574680216610432</v>
       </c>
       <c r="I54">
-        <v>0.1143574555288069</v>
+        <v>0.004733398323878646</v>
       </c>
       <c r="J54">
-        <v>0.1455273100640625</v>
+        <v>0.0343046709895134</v>
       </c>
       <c r="K54">
-        <v>0.002956831420306116</v>
+        <v>0.003284576814621687</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2462,47 +3982,5887 @@
         <v>4</v>
       </c>
       <c r="C55">
-        <v>2169.1</v>
+        <v>2167</v>
       </c>
       <c r="D55">
-        <v>0.004286710009910166</v>
+        <v>0.003576083690859377</v>
       </c>
       <c r="E55">
-        <v>1.118721616792027</v>
+        <v>0.9184268169337884</v>
       </c>
       <c r="F55">
-        <v>2169.1</v>
+        <v>2167</v>
       </c>
       <c r="G55">
-        <v>0.07938276755157858</v>
+        <v>0.07032706122845411</v>
       </c>
       <c r="H55">
-        <v>0.6128373906365596</v>
+        <v>0.5813028744887561</v>
       </c>
       <c r="I55">
-        <v>0.1159837191109546</v>
+        <v>0.04451627982780337</v>
       </c>
       <c r="J55">
-        <v>0.2044103817199357</v>
+        <v>0.1214581343811005</v>
       </c>
       <c r="K55">
-        <v>0.0260990021051839</v>
+        <v>0.02469394588842988</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56">
+        <v>33813</v>
+      </c>
+      <c r="E56">
+        <v>5.923662944696844</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C56">
-        <v>117045</v>
-      </c>
-      <c r="E56">
-        <v>21.74987646180671</v>
+      <c r="B57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>2116</v>
+      </c>
+      <c r="D57">
+        <v>0.002559949760325253</v>
+      </c>
+      <c r="E57">
+        <v>0.9128720139851794</v>
+      </c>
+      <c r="F57">
+        <v>2116</v>
+      </c>
+      <c r="G57">
+        <v>0.07076964701991528</v>
+      </c>
+      <c r="H57">
+        <v>0.5848306703846902</v>
+      </c>
+      <c r="I57">
+        <v>0.03506043786183</v>
+      </c>
+      <c r="J57">
+        <v>0.1209948939504102</v>
+      </c>
+      <c r="K57">
+        <v>0.02495715895202011</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>237</v>
+      </c>
+      <c r="D58">
+        <v>0.01187973574269563</v>
+      </c>
+      <c r="E58">
+        <v>0.1335886790184304</v>
+      </c>
+      <c r="F58">
+        <v>237</v>
+      </c>
+      <c r="G58">
+        <v>0.007852018461562693</v>
+      </c>
+      <c r="H58">
+        <v>0.07960745180025697</v>
+      </c>
+      <c r="I58">
+        <v>0.003832210320979357</v>
+      </c>
+      <c r="J58">
+        <v>0.03126914391759783</v>
+      </c>
+      <c r="K58">
+        <v>0.002799001871608198</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>231</v>
+      </c>
+      <c r="D59">
+        <v>0.01190080388914794</v>
+      </c>
+      <c r="E59">
+        <v>0.1305582630448043</v>
+      </c>
+      <c r="F59">
+        <v>231</v>
+      </c>
+      <c r="G59">
+        <v>0.007703415583819151</v>
+      </c>
+      <c r="H59">
+        <v>0.07774756266735494</v>
+      </c>
+      <c r="I59">
+        <v>0.003884766949340701</v>
+      </c>
+      <c r="J59">
+        <v>0.03048413735814393</v>
+      </c>
+      <c r="K59">
+        <v>0.002675394993275404</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>2116</v>
+      </c>
+      <c r="D60">
+        <v>0.003498589270748198</v>
+      </c>
+      <c r="E60">
+        <v>0.8980118179460987</v>
+      </c>
+      <c r="F60">
+        <v>2116</v>
+      </c>
+      <c r="G60">
+        <v>0.06928610091563314</v>
+      </c>
+      <c r="H60">
+        <v>0.5682744311634451</v>
+      </c>
+      <c r="I60">
+        <v>0.04069981910288334</v>
+      </c>
+      <c r="J60">
+        <v>0.120504149235785</v>
+      </c>
+      <c r="K60">
+        <v>0.02449421328492463</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61">
+        <v>33813</v>
+      </c>
+      <c r="E61">
+        <v>5.878123299917206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>1305</v>
+      </c>
+      <c r="D62">
+        <v>0.00159132678527385</v>
+      </c>
+      <c r="E62">
+        <v>0.5461698479484767</v>
+      </c>
+      <c r="F62">
+        <v>1305</v>
+      </c>
+      <c r="G62">
+        <v>0.0418265478219837</v>
+      </c>
+      <c r="H62">
+        <v>0.3427313552238047</v>
+      </c>
+      <c r="I62">
+        <v>0.02454831067007035</v>
+      </c>
+      <c r="J62">
+        <v>0.07744165440090001</v>
+      </c>
+      <c r="K62">
+        <v>0.01469488895963877</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>114</v>
+      </c>
+      <c r="D63">
+        <v>0.007892442052252591</v>
+      </c>
+      <c r="E63">
+        <v>0.07545036799274385</v>
+      </c>
+      <c r="F63">
+        <v>114</v>
+      </c>
+      <c r="G63">
+        <v>0.003808350651524961</v>
+      </c>
+      <c r="H63">
+        <v>0.04115143523085862</v>
+      </c>
+      <c r="I63">
+        <v>0.002791876089759171</v>
+      </c>
+      <c r="J63">
+        <v>0.02246647339779884</v>
+      </c>
+      <c r="K63">
+        <v>0.001348077668808401</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>117</v>
+      </c>
+      <c r="D64">
+        <v>0.008890678640455008</v>
+      </c>
+      <c r="E64">
+        <v>0.08176074095536023</v>
+      </c>
+      <c r="F64">
+        <v>117</v>
+      </c>
+      <c r="G64">
+        <v>0.004274535342119634</v>
+      </c>
+      <c r="H64">
+        <v>0.04611107520759106</v>
+      </c>
+      <c r="I64">
+        <v>0.002763685653917491</v>
+      </c>
+      <c r="J64">
+        <v>0.02267558744642884</v>
+      </c>
+      <c r="K64">
+        <v>0.001513473805971444</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>1305</v>
+      </c>
+      <c r="D65">
+        <v>0.002543149166740477</v>
+      </c>
+      <c r="E65">
+        <v>0.6314676239853725</v>
+      </c>
+      <c r="F65">
+        <v>1305</v>
+      </c>
+      <c r="G65">
+        <v>0.04585527232848108</v>
+      </c>
+      <c r="H65">
+        <v>0.3746902098646387</v>
+      </c>
+      <c r="I65">
+        <v>0.03243579820264131</v>
+      </c>
+      <c r="J65">
+        <v>0.1126072524348274</v>
+      </c>
+      <c r="K65">
+        <v>0.01622111524920911</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66">
+        <v>33813</v>
+      </c>
+      <c r="E66">
+        <v>6.314137116889469</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>1680</v>
+      </c>
+      <c r="D67">
+        <v>0.002072924515232444</v>
+      </c>
+      <c r="E67">
+        <v>0.7582758500939235</v>
+      </c>
+      <c r="F67">
+        <v>1680</v>
+      </c>
+      <c r="G67">
+        <v>0.05661372235044837</v>
+      </c>
+      <c r="H67">
+        <v>0.4861836599884555</v>
+      </c>
+      <c r="I67">
+        <v>0.03345029382035136</v>
+      </c>
+      <c r="J67">
+        <v>0.1009023478254676</v>
+      </c>
+      <c r="K67">
+        <v>0.01969763054512441</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>172</v>
+      </c>
+      <c r="D68">
+        <v>0.01086348388344049</v>
+      </c>
+      <c r="E68">
+        <v>0.1071371079888195</v>
+      </c>
+      <c r="F68">
+        <v>172</v>
+      </c>
+      <c r="G68">
+        <v>0.006016554427333176</v>
+      </c>
+      <c r="H68">
+        <v>0.06161948561202735</v>
+      </c>
+      <c r="I68">
+        <v>0.003383640199899673</v>
+      </c>
+      <c r="J68">
+        <v>0.02788211987353861</v>
+      </c>
+      <c r="K68">
+        <v>0.001997682848013937</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>172</v>
+      </c>
+      <c r="D69">
+        <v>0.01027317414991558</v>
+      </c>
+      <c r="E69">
+        <v>0.1049745850032195</v>
+      </c>
+      <c r="F69">
+        <v>172</v>
+      </c>
+      <c r="G69">
+        <v>0.005972779123112559</v>
+      </c>
+      <c r="H69">
+        <v>0.06069973018020391</v>
+      </c>
+      <c r="I69">
+        <v>0.003337795147672296</v>
+      </c>
+      <c r="J69">
+        <v>0.02658773702569306</v>
+      </c>
+      <c r="K69">
+        <v>0.00208508362993598</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>1680</v>
+      </c>
+      <c r="D70">
+        <v>0.002992346067912877</v>
+      </c>
+      <c r="E70">
+        <v>0.7374879400013015</v>
+      </c>
+      <c r="F70">
+        <v>1680</v>
+      </c>
+      <c r="G70">
+        <v>0.05633675504941493</v>
+      </c>
+      <c r="H70">
+        <v>0.4599309146869928</v>
+      </c>
+      <c r="I70">
+        <v>0.0386500854510814</v>
+      </c>
+      <c r="J70">
+        <v>0.1008046545321122</v>
+      </c>
+      <c r="K70">
+        <v>0.01994030433706939</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <v>33813</v>
+      </c>
+      <c r="E71">
+        <v>7.14663336891681</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>1619</v>
+      </c>
+      <c r="D72">
+        <v>0.002001399523578584</v>
+      </c>
+      <c r="E72">
+        <v>0.6928927199915051</v>
+      </c>
+      <c r="F72">
+        <v>1619</v>
+      </c>
+      <c r="G72">
+        <v>0.05388223868794739</v>
+      </c>
+      <c r="H72">
+        <v>0.4372069702949375</v>
+      </c>
+      <c r="I72">
+        <v>0.03070237522479147</v>
+      </c>
+      <c r="J72">
+        <v>0.09351670788601041</v>
+      </c>
+      <c r="K72">
+        <v>0.01886583562009037</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>161</v>
+      </c>
+      <c r="D73">
+        <v>0.01064855849836022</v>
+      </c>
+      <c r="E73">
+        <v>0.09916073502972722</v>
+      </c>
+      <c r="F73">
+        <v>161</v>
+      </c>
+      <c r="G73">
+        <v>0.00572175404522568</v>
+      </c>
+      <c r="H73">
+        <v>0.05906627897638828</v>
+      </c>
+      <c r="I73">
+        <v>0.00332543533295393</v>
+      </c>
+      <c r="J73">
+        <v>0.02319482911843807</v>
+      </c>
+      <c r="K73">
+        <v>0.001944771851412952</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>160</v>
+      </c>
+      <c r="D74">
+        <v>0.01040382811333984</v>
+      </c>
+      <c r="E74">
+        <v>0.1001862760167569</v>
+      </c>
+      <c r="F74">
+        <v>160</v>
+      </c>
+      <c r="G74">
+        <v>0.005652426858432591</v>
+      </c>
+      <c r="H74">
+        <v>0.05730117042548954</v>
+      </c>
+      <c r="I74">
+        <v>0.003391927573829889</v>
+      </c>
+      <c r="J74">
+        <v>0.02593473391607404</v>
+      </c>
+      <c r="K74">
+        <v>0.001955658197402954</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>1619</v>
+      </c>
+      <c r="D75">
+        <v>0.002942007035017014</v>
+      </c>
+      <c r="E75">
+        <v>0.6992959859780967</v>
+      </c>
+      <c r="F75">
+        <v>1619</v>
+      </c>
+      <c r="G75">
+        <v>0.05395934300031513</v>
+      </c>
+      <c r="H75">
+        <v>0.439168490935117</v>
+      </c>
+      <c r="I75">
+        <v>0.03556345985271037</v>
+      </c>
+      <c r="J75">
+        <v>0.09233350260183215</v>
+      </c>
+      <c r="K75">
+        <v>0.01917456963565201</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76">
+        <v>33813</v>
+      </c>
+      <c r="E76">
+        <v>7.957578803994693</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>2223</v>
+      </c>
+      <c r="D77">
+        <v>0.002565189031884074</v>
+      </c>
+      <c r="E77">
+        <v>0.9500252529978752</v>
+      </c>
+      <c r="F77">
+        <v>2223</v>
+      </c>
+      <c r="G77">
+        <v>0.07514352444559336</v>
+      </c>
+      <c r="H77">
+        <v>0.6047315109753981</v>
+      </c>
+      <c r="I77">
+        <v>0.03808294411282986</v>
+      </c>
+      <c r="J77">
+        <v>0.1233100515091792</v>
+      </c>
+      <c r="K77">
+        <v>0.0262675789417699</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>277</v>
+      </c>
+      <c r="D78">
+        <v>0.01472637569531798</v>
+      </c>
+      <c r="E78">
+        <v>0.157033029012382</v>
+      </c>
+      <c r="F78">
+        <v>277</v>
+      </c>
+      <c r="G78">
+        <v>0.009806602261960506</v>
+      </c>
+      <c r="H78">
+        <v>0.096503617009148</v>
+      </c>
+      <c r="I78">
+        <v>0.00444230972789228</v>
+      </c>
+      <c r="J78">
+        <v>0.03251160436775535</v>
+      </c>
+      <c r="K78">
+        <v>0.00335785944480449</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>294</v>
+      </c>
+      <c r="D79">
+        <v>0.01557097106706351</v>
+      </c>
+      <c r="E79">
+        <v>0.1658927189419046</v>
+      </c>
+      <c r="F79">
+        <v>294</v>
+      </c>
+      <c r="G79">
+        <v>0.01018663984723389</v>
+      </c>
+      <c r="H79">
+        <v>0.1023711026646197</v>
+      </c>
+      <c r="I79">
+        <v>0.004821300157345831</v>
+      </c>
+      <c r="J79">
+        <v>0.03400440840050578</v>
+      </c>
+      <c r="K79">
+        <v>0.003541064565069973</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>2223</v>
+      </c>
+      <c r="D80">
+        <v>0.003826554166153073</v>
+      </c>
+      <c r="E80">
+        <v>1.002876923070289</v>
+      </c>
+      <c r="F80">
+        <v>2223</v>
+      </c>
+      <c r="G80">
+        <v>0.07611352461390197</v>
+      </c>
+      <c r="H80">
+        <v>0.6127395433140919</v>
+      </c>
+      <c r="I80">
+        <v>0.04367736901622266</v>
+      </c>
+      <c r="J80">
+        <v>0.1604299285681918</v>
+      </c>
+      <c r="K80">
+        <v>0.02686570282094181</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C81">
+        <v>33813</v>
+      </c>
+      <c r="E81">
+        <v>7.056407785392366</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>1536</v>
+      </c>
+      <c r="D82">
+        <v>0.001939728506840765</v>
+      </c>
+      <c r="E82">
+        <v>0.6640630160691217</v>
+      </c>
+      <c r="F82">
+        <v>1536</v>
+      </c>
+      <c r="G82">
+        <v>0.05129554809536785</v>
+      </c>
+      <c r="H82">
+        <v>0.4186413687421009</v>
+      </c>
+      <c r="I82">
+        <v>0.02996452618390322</v>
+      </c>
+      <c r="J82">
+        <v>0.08973294368479401</v>
+      </c>
+      <c r="K82">
+        <v>0.01811633876059204</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>148</v>
+      </c>
+      <c r="D83">
+        <v>0.01055166986770928</v>
+      </c>
+      <c r="E83">
+        <v>0.09386680601164699</v>
+      </c>
+      <c r="F83">
+        <v>148</v>
+      </c>
+      <c r="G83">
+        <v>0.005171431927010417</v>
+      </c>
+      <c r="H83">
+        <v>0.05429825803730637</v>
+      </c>
+      <c r="I83">
+        <v>0.003240708261728287</v>
+      </c>
+      <c r="J83">
+        <v>0.02394549746531993</v>
+      </c>
+      <c r="K83">
+        <v>0.001782387844286859</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <v>138</v>
+      </c>
+      <c r="D84">
+        <v>0.009460951085202396</v>
+      </c>
+      <c r="E84">
+        <v>0.08890855906065553</v>
+      </c>
+      <c r="F84">
+        <v>138</v>
+      </c>
+      <c r="G84">
+        <v>0.00473417725879699</v>
+      </c>
+      <c r="H84">
+        <v>0.05044055718462914</v>
+      </c>
+      <c r="I84">
+        <v>0.00298125681001693</v>
+      </c>
+      <c r="J84">
+        <v>0.02409295295365155</v>
+      </c>
+      <c r="K84">
+        <v>0.001718811341561377</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <v>1536</v>
+      </c>
+      <c r="D85">
+        <v>0.002849878626875579</v>
+      </c>
+      <c r="E85">
+        <v>0.6726078499341384</v>
+      </c>
+      <c r="F85">
+        <v>1536</v>
+      </c>
+      <c r="G85">
+        <v>0.05154926038812846</v>
+      </c>
+      <c r="H85">
+        <v>0.4208294796990231</v>
+      </c>
+      <c r="I85">
+        <v>0.03551685926504433</v>
+      </c>
+      <c r="J85">
+        <v>0.09100522787775844</v>
+      </c>
+      <c r="K85">
+        <v>0.01812157139647752</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C86">
+        <v>33813</v>
+      </c>
+      <c r="E86">
+        <v>6.446683287853375</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>1648</v>
+      </c>
+      <c r="D87">
+        <v>0.00195735227316618</v>
+      </c>
+      <c r="E87">
+        <v>0.6926974660018459</v>
+      </c>
+      <c r="F87">
+        <v>1648</v>
+      </c>
+      <c r="G87">
+        <v>0.05411429982632399</v>
+      </c>
+      <c r="H87">
+        <v>0.4420111434301361</v>
+      </c>
+      <c r="I87">
+        <v>0.02682104101404548</v>
+      </c>
+      <c r="J87">
+        <v>0.09144131711218506</v>
+      </c>
+      <c r="K87">
+        <v>0.01936538377776742</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>177</v>
+      </c>
+      <c r="D88">
+        <v>0.01020499935839325</v>
+      </c>
+      <c r="E88">
+        <v>0.1046427120454609</v>
+      </c>
+      <c r="F88">
+        <v>177</v>
+      </c>
+      <c r="G88">
+        <v>0.006174808018840849</v>
+      </c>
+      <c r="H88">
+        <v>0.06329160835593939</v>
+      </c>
+      <c r="I88">
+        <v>0.003198900842107832</v>
+      </c>
+      <c r="J88">
+        <v>0.02339836570899934</v>
+      </c>
+      <c r="K88">
+        <v>0.002175692236050963</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89">
+        <v>177</v>
+      </c>
+      <c r="D89">
+        <v>0.0104498831788078</v>
+      </c>
+      <c r="E89">
+        <v>0.1040656729601324</v>
+      </c>
+      <c r="F89">
+        <v>177</v>
+      </c>
+      <c r="G89">
+        <v>0.00599352119024843</v>
+      </c>
+      <c r="H89">
+        <v>0.06228245387319475</v>
+      </c>
+      <c r="I89">
+        <v>0.003295718226581812</v>
+      </c>
+      <c r="J89">
+        <v>0.02399198594503105</v>
+      </c>
+      <c r="K89">
+        <v>0.002149315201677382</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>1648</v>
+      </c>
+      <c r="D90">
+        <v>0.002806706703267992</v>
+      </c>
+      <c r="E90">
+        <v>0.6964415700640529</v>
+      </c>
+      <c r="F90">
+        <v>1648</v>
+      </c>
+      <c r="G90">
+        <v>0.05436103453394026</v>
+      </c>
+      <c r="H90">
+        <v>0.4410865406971425</v>
+      </c>
+      <c r="I90">
+        <v>0.03130725957453251</v>
+      </c>
+      <c r="J90">
+        <v>0.09241543873213232</v>
+      </c>
+      <c r="K90">
+        <v>0.01900408463552594</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C91">
+        <v>33813</v>
+      </c>
+      <c r="E91">
+        <v>8.002079862751998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>1788</v>
+      </c>
+      <c r="D92">
+        <v>0.002071363967843354</v>
+      </c>
+      <c r="E92">
+        <v>0.7594752518925816</v>
+      </c>
+      <c r="F92">
+        <v>1788</v>
+      </c>
+      <c r="G92">
+        <v>0.05890013428870589</v>
+      </c>
+      <c r="H92">
+        <v>0.4806151574011892</v>
+      </c>
+      <c r="I92">
+        <v>0.03220257780048996</v>
+      </c>
+      <c r="J92">
+        <v>0.1033058268949389</v>
+      </c>
+      <c r="K92">
+        <v>0.02105951402336359</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>209</v>
+      </c>
+      <c r="D93">
+        <v>0.01166033535264432</v>
+      </c>
+      <c r="E93">
+        <v>0.1217862359480932</v>
+      </c>
+      <c r="F93">
+        <v>209</v>
+      </c>
+      <c r="G93">
+        <v>0.00708547851536423</v>
+      </c>
+      <c r="H93">
+        <v>0.07277006655931473</v>
+      </c>
+      <c r="I93">
+        <v>0.003759063314646482</v>
+      </c>
+      <c r="J93">
+        <v>0.02826547285076231</v>
+      </c>
+      <c r="K93">
+        <v>0.002541031804867089</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94">
+        <v>205</v>
+      </c>
+      <c r="D94">
+        <v>0.01133417431265116</v>
+      </c>
+      <c r="E94">
+        <v>0.1187983920099214</v>
+      </c>
+      <c r="F94">
+        <v>205</v>
+      </c>
+      <c r="G94">
+        <v>0.006803397787734866</v>
+      </c>
+      <c r="H94">
+        <v>0.07161915011238307</v>
+      </c>
+      <c r="I94">
+        <v>0.003561264253221452</v>
+      </c>
+      <c r="J94">
+        <v>0.02729121316224337</v>
+      </c>
+      <c r="K94">
+        <v>0.002368271118029952</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95">
+        <v>1788</v>
+      </c>
+      <c r="D95">
+        <v>0.003127600997686386</v>
+      </c>
+      <c r="E95">
+        <v>0.7986325239762664</v>
+      </c>
+      <c r="F95">
+        <v>1788</v>
+      </c>
+      <c r="G95">
+        <v>0.06099953595548868</v>
+      </c>
+      <c r="H95">
+        <v>0.5024487582268193</v>
+      </c>
+      <c r="I95">
+        <v>0.03857378428801894</v>
+      </c>
+      <c r="J95">
+        <v>0.1079828542424366</v>
+      </c>
+      <c r="K95">
+        <v>0.02190400962717831</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C96">
+        <v>33813</v>
+      </c>
+      <c r="E96">
+        <v>6.288558452040888</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>1683</v>
+      </c>
+      <c r="D97">
+        <v>0.00201147049665451</v>
+      </c>
+      <c r="E97">
+        <v>0.7469560999888927</v>
+      </c>
+      <c r="F97">
+        <v>1683</v>
+      </c>
+      <c r="G97">
+        <v>0.05610610672738403</v>
+      </c>
+      <c r="H97">
+        <v>0.4542550891637802</v>
+      </c>
+      <c r="I97">
+        <v>0.03099686454515904</v>
+      </c>
+      <c r="J97">
+        <v>0.1257303052116185</v>
+      </c>
+      <c r="K97">
+        <v>0.01950619276612997</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98">
+        <v>195</v>
+      </c>
+      <c r="D98">
+        <v>0.01073890028055757</v>
+      </c>
+      <c r="E98">
+        <v>0.115153755992651</v>
+      </c>
+      <c r="F98">
+        <v>195</v>
+      </c>
+      <c r="G98">
+        <v>0.00657373876310885</v>
+      </c>
+      <c r="H98">
+        <v>0.06752547179348767</v>
+      </c>
+      <c r="I98">
+        <v>0.003635053639300168</v>
+      </c>
+      <c r="J98">
+        <v>0.0282640103250742</v>
+      </c>
+      <c r="K98">
+        <v>0.002392325201071799</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99">
+        <v>189</v>
+      </c>
+      <c r="D99">
+        <v>0.01117261603940278</v>
+      </c>
+      <c r="E99">
+        <v>0.1128001849865541</v>
+      </c>
+      <c r="F99">
+        <v>189</v>
+      </c>
+      <c r="G99">
+        <v>0.00633605697657913</v>
+      </c>
+      <c r="H99">
+        <v>0.06607239227741957</v>
+      </c>
+      <c r="I99">
+        <v>0.003571084467694163</v>
+      </c>
+      <c r="J99">
+        <v>0.02809703175444156</v>
+      </c>
+      <c r="K99">
+        <v>0.002214039210230112</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <v>1683</v>
+      </c>
+      <c r="D100">
+        <v>0.002897550468333066</v>
+      </c>
+      <c r="E100">
+        <v>0.7139627590076998</v>
+      </c>
+      <c r="F100">
+        <v>1683</v>
+      </c>
+      <c r="G100">
+        <v>0.05438373750075698</v>
+      </c>
+      <c r="H100">
+        <v>0.4473419472342357</v>
+      </c>
+      <c r="I100">
+        <v>0.03555321577005088</v>
+      </c>
+      <c r="J100">
+        <v>0.0983604162465781</v>
+      </c>
+      <c r="K100">
+        <v>0.01933872315566987</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C101">
+        <v>33813</v>
+      </c>
+      <c r="E101">
+        <v>6.688131348113529</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>2214</v>
+      </c>
+      <c r="D102">
+        <v>0.002531688194721937</v>
+      </c>
+      <c r="E102">
+        <v>0.9153199469437823</v>
+      </c>
+      <c r="F102">
+        <v>2214</v>
+      </c>
+      <c r="G102">
+        <v>0.07159229449462146</v>
+      </c>
+      <c r="H102">
+        <v>0.586370300501585</v>
+      </c>
+      <c r="I102">
+        <v>0.03531304909847677</v>
+      </c>
+      <c r="J102">
+        <v>0.1186296854866669</v>
+      </c>
+      <c r="K102">
+        <v>0.02539977710694075</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103">
+        <v>258</v>
+      </c>
+      <c r="D103">
+        <v>0.01383703271858394</v>
+      </c>
+      <c r="E103">
+        <v>0.1426303589250892</v>
+      </c>
+      <c r="F103">
+        <v>258</v>
+      </c>
+      <c r="G103">
+        <v>0.008480642456561327</v>
+      </c>
+      <c r="H103">
+        <v>0.08699562458787113</v>
+      </c>
+      <c r="I103">
+        <v>0.004407992237247527</v>
+      </c>
+      <c r="J103">
+        <v>0.03072177071589977</v>
+      </c>
+      <c r="K103">
+        <v>0.003045517951250076</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>240</v>
+      </c>
+      <c r="D104">
+        <v>0.01319360651541501</v>
+      </c>
+      <c r="E104">
+        <v>0.1316626239567995</v>
+      </c>
+      <c r="F104">
+        <v>240</v>
+      </c>
+      <c r="G104">
+        <v>0.007740228902548552</v>
+      </c>
+      <c r="H104">
+        <v>0.07982126751448959</v>
+      </c>
+      <c r="I104">
+        <v>0.004198550013825297</v>
+      </c>
+      <c r="J104">
+        <v>0.02901418914552778</v>
+      </c>
+      <c r="K104">
+        <v>0.002718737232498825</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105">
+        <v>2214</v>
+      </c>
+      <c r="D105">
+        <v>0.003605416161008179</v>
+      </c>
+      <c r="E105">
+        <v>0.9114670020062476</v>
+      </c>
+      <c r="F105">
+        <v>2214</v>
+      </c>
+      <c r="G105">
+        <v>0.07094397721812129</v>
+      </c>
+      <c r="H105">
+        <v>0.5806709380121902</v>
+      </c>
+      <c r="I105">
+        <v>0.03994690917897969</v>
+      </c>
+      <c r="J105">
+        <v>0.1178308305097744</v>
+      </c>
+      <c r="K105">
+        <v>0.0251918223220855</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C106">
+        <v>33813</v>
+      </c>
+      <c r="E106">
+        <v>6.326044962042943</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>1946</v>
+      </c>
+      <c r="D107">
+        <v>0.002340532373636961</v>
+      </c>
+      <c r="E107">
+        <v>0.8107874150155112</v>
+      </c>
+      <c r="F107">
+        <v>1946</v>
+      </c>
+      <c r="G107">
+        <v>0.06237533909734339</v>
+      </c>
+      <c r="H107">
+        <v>0.5143555538961664</v>
+      </c>
+      <c r="I107">
+        <v>0.03674766118638217</v>
+      </c>
+      <c r="J107">
+        <v>0.1086103891720995</v>
+      </c>
+      <c r="K107">
+        <v>0.02176499355118722</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <v>185</v>
+      </c>
+      <c r="D108">
+        <v>0.0114308298798278</v>
+      </c>
+      <c r="E108">
+        <v>0.1108915980439633</v>
+      </c>
+      <c r="F108">
+        <v>185</v>
+      </c>
+      <c r="G108">
+        <v>0.006461881450377405</v>
+      </c>
+      <c r="H108">
+        <v>0.06638305308297276</v>
+      </c>
+      <c r="I108">
+        <v>0.003709995071403682</v>
+      </c>
+      <c r="J108">
+        <v>0.0253523449646309</v>
+      </c>
+      <c r="K108">
+        <v>0.00223919574636966</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109">
+        <v>174</v>
+      </c>
+      <c r="D109">
+        <v>0.01112199947237968</v>
+      </c>
+      <c r="E109">
+        <v>0.105097344960086</v>
+      </c>
+      <c r="F109">
+        <v>174</v>
+      </c>
+      <c r="G109">
+        <v>0.005810452857986093</v>
+      </c>
+      <c r="H109">
+        <v>0.06156654539518058</v>
+      </c>
+      <c r="I109">
+        <v>0.003560854587703943</v>
+      </c>
+      <c r="J109">
+        <v>0.02610954141709954</v>
+      </c>
+      <c r="K109">
+        <v>0.002005544025450945</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <v>1946</v>
+      </c>
+      <c r="D110">
+        <v>0.003405772033147514</v>
+      </c>
+      <c r="E110">
+        <v>0.8335807690164074</v>
+      </c>
+      <c r="F110">
+        <v>1946</v>
+      </c>
+      <c r="G110">
+        <v>0.06396152125671506</v>
+      </c>
+      <c r="H110">
+        <v>0.5230429016519338</v>
+      </c>
+      <c r="I110">
+        <v>0.04334294109139591</v>
+      </c>
+      <c r="J110">
+        <v>0.1114538880065084</v>
+      </c>
+      <c r="K110">
+        <v>0.02267730713356286</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C111">
+        <v>33813</v>
+      </c>
+      <c r="E111">
+        <v>6.437415978987701</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>2263</v>
+      </c>
+      <c r="D112">
+        <v>0.002583673689514399</v>
+      </c>
+      <c r="E112">
+        <v>0.9757288680411875</v>
+      </c>
+      <c r="F112">
+        <v>2263</v>
+      </c>
+      <c r="G112">
+        <v>0.07342461927328259</v>
+      </c>
+      <c r="H112">
+        <v>0.6284598398488015</v>
+      </c>
+      <c r="I112">
+        <v>0.04033361165784299</v>
+      </c>
+      <c r="J112">
+        <v>0.1268848263425753</v>
+      </c>
+      <c r="K112">
+        <v>0.02633841312490404</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C113">
+        <v>229</v>
+      </c>
+      <c r="D113">
+        <v>0.01218235015403479</v>
+      </c>
+      <c r="E113">
+        <v>0.129638570942916</v>
+      </c>
+      <c r="F113">
+        <v>229</v>
+      </c>
+      <c r="G113">
+        <v>0.007564614643342793</v>
+      </c>
+      <c r="H113">
+        <v>0.0742814012337476</v>
+      </c>
+      <c r="I113">
+        <v>0.004160817363299429</v>
+      </c>
+      <c r="J113">
+        <v>0.03289275639690459</v>
+      </c>
+      <c r="K113">
+        <v>0.002709086867980659</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114">
+        <v>230</v>
+      </c>
+      <c r="D114">
+        <v>0.01263064541853964</v>
+      </c>
+      <c r="E114">
+        <v>0.134916402050294</v>
+      </c>
+      <c r="F114">
+        <v>230</v>
+      </c>
+      <c r="G114">
+        <v>0.007903262623585761</v>
+      </c>
+      <c r="H114">
+        <v>0.07699176750611514</v>
+      </c>
+      <c r="I114">
+        <v>0.004377398523502052</v>
+      </c>
+      <c r="J114">
+        <v>0.03451096673961729</v>
+      </c>
+      <c r="K114">
+        <v>0.002748105325736105</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>2263</v>
+      </c>
+      <c r="D115">
+        <v>0.003777267062105238</v>
+      </c>
+      <c r="E115">
+        <v>0.9682371800299734</v>
+      </c>
+      <c r="F115">
+        <v>2263</v>
+      </c>
+      <c r="G115">
+        <v>0.07518627680838108</v>
+      </c>
+      <c r="H115">
+        <v>0.6072720452211797</v>
+      </c>
+      <c r="I115">
+        <v>0.04770488501526415</v>
+      </c>
+      <c r="J115">
+        <v>0.1304785131942481</v>
+      </c>
+      <c r="K115">
+        <v>0.02654884313233197</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C116">
+        <v>33813</v>
+      </c>
+      <c r="E116">
+        <v>6.329787348979153</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>1389</v>
+      </c>
+      <c r="D117">
+        <v>0.001624614931643009</v>
+      </c>
+      <c r="E117">
+        <v>0.5807979520177469</v>
+      </c>
+      <c r="F117">
+        <v>1389</v>
+      </c>
+      <c r="G117">
+        <v>0.04535849124658853</v>
+      </c>
+      <c r="H117">
+        <v>0.3693715477129444</v>
+      </c>
+      <c r="I117">
+        <v>0.02345009380951524</v>
+      </c>
+      <c r="J117">
+        <v>0.07729141542222351</v>
+      </c>
+      <c r="K117">
+        <v>0.01607474545016885</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118">
+        <v>141</v>
+      </c>
+      <c r="D118">
+        <v>0.007944967364892364</v>
+      </c>
+      <c r="E118">
+        <v>0.08369009802117944</v>
+      </c>
+      <c r="F118">
+        <v>141</v>
+      </c>
+      <c r="G118">
+        <v>0.004819836234673858</v>
+      </c>
+      <c r="H118">
+        <v>0.04905399424023926</v>
+      </c>
+      <c r="I118">
+        <v>0.002882506814785302</v>
+      </c>
+      <c r="J118">
+        <v>0.02016909653320909</v>
+      </c>
+      <c r="K118">
+        <v>0.001664903247728944</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119">
+        <v>135</v>
+      </c>
+      <c r="D119">
+        <v>0.008513551321811974</v>
+      </c>
+      <c r="E119">
+        <v>0.08050104300491512</v>
+      </c>
+      <c r="F119">
+        <v>135</v>
+      </c>
+      <c r="G119">
+        <v>0.004613198223523796</v>
+      </c>
+      <c r="H119">
+        <v>0.04650412604678422</v>
+      </c>
+      <c r="I119">
+        <v>0.002732224180363119</v>
+      </c>
+      <c r="J119">
+        <v>0.02024074585642666</v>
+      </c>
+      <c r="K119">
+        <v>0.001589416642673314</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120">
+        <v>1389</v>
+      </c>
+      <c r="D120">
+        <v>0.002462237607687712</v>
+      </c>
+      <c r="E120">
+        <v>0.5937909269705415</v>
+      </c>
+      <c r="F120">
+        <v>1389</v>
+      </c>
+      <c r="G120">
+        <v>0.04561715328600258</v>
+      </c>
+      <c r="H120">
+        <v>0.3764549739426002</v>
+      </c>
+      <c r="I120">
+        <v>0.02769864047877491</v>
+      </c>
+      <c r="J120">
+        <v>0.07873776112683117</v>
+      </c>
+      <c r="K120">
+        <v>0.01616420526988804</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C121">
+        <v>33813</v>
+      </c>
+      <c r="E121">
+        <v>6.505126644158736</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>2081</v>
+      </c>
+      <c r="D122">
+        <v>0.002319855615496635</v>
+      </c>
+      <c r="E122">
+        <v>0.8643974830629304</v>
+      </c>
+      <c r="F122">
+        <v>2081</v>
+      </c>
+      <c r="G122">
+        <v>0.06782443763222545</v>
+      </c>
+      <c r="H122">
+        <v>0.5517320142826065</v>
+      </c>
+      <c r="I122">
+        <v>0.03257981245405972</v>
+      </c>
+      <c r="J122">
+        <v>0.1148971678921953</v>
+      </c>
+      <c r="K122">
+        <v>0.02397004317026585</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123">
+        <v>135</v>
+      </c>
+      <c r="D123">
+        <v>0.009751737001352012</v>
+      </c>
+      <c r="E123">
+        <v>0.08936858701054007</v>
+      </c>
+      <c r="F123">
+        <v>135</v>
+      </c>
+      <c r="G123">
+        <v>0.004704049439169466</v>
+      </c>
+      <c r="H123">
+        <v>0.0506700569530949</v>
+      </c>
+      <c r="I123">
+        <v>0.003012288711033762</v>
+      </c>
+      <c r="J123">
+        <v>0.02440111758187413</v>
+      </c>
+      <c r="K123">
+        <v>0.001704623689875007</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <v>136</v>
+      </c>
+      <c r="D124">
+        <v>0.009558623074553907</v>
+      </c>
+      <c r="E124">
+        <v>0.08884502504952252</v>
+      </c>
+      <c r="F124">
+        <v>136</v>
+      </c>
+      <c r="G124">
+        <v>0.004654673626646399</v>
+      </c>
+      <c r="H124">
+        <v>0.05016291933134198</v>
+      </c>
+      <c r="I124">
+        <v>0.002951095812022686</v>
+      </c>
+      <c r="J124">
+        <v>0.02457095426507294</v>
+      </c>
+      <c r="K124">
+        <v>0.001675662584602833</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125">
+        <v>2081</v>
+      </c>
+      <c r="D125">
+        <v>0.003530295914970338</v>
+      </c>
+      <c r="E125">
+        <v>0.9005295240785927</v>
+      </c>
+      <c r="F125">
+        <v>2081</v>
+      </c>
+      <c r="G125">
+        <v>0.07007576210889965</v>
+      </c>
+      <c r="H125">
+        <v>0.5717604361707345</v>
+      </c>
+      <c r="I125">
+        <v>0.03939720580819994</v>
+      </c>
+      <c r="J125">
+        <v>0.1188092398224398</v>
+      </c>
+      <c r="K125">
+        <v>0.02470573026221246</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C126">
+        <v>33813</v>
+      </c>
+      <c r="E126">
+        <v>6.357775302021764</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>1895</v>
+      </c>
+      <c r="D127">
+        <v>0.002110454021021724</v>
+      </c>
+      <c r="E127">
+        <v>0.818541634012945</v>
+      </c>
+      <c r="F127">
+        <v>1895</v>
+      </c>
+      <c r="G127">
+        <v>0.0616099601611495</v>
+      </c>
+      <c r="H127">
+        <v>0.5051272710552439</v>
+      </c>
+      <c r="I127">
+        <v>0.0290898703970015</v>
+      </c>
+      <c r="J127">
+        <v>0.1325298707233742</v>
+      </c>
+      <c r="K127">
+        <v>0.02240184147376567</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128">
+        <v>240</v>
+      </c>
+      <c r="D128">
+        <v>0.01103505399078131</v>
+      </c>
+      <c r="E128">
+        <v>0.1289088100893423</v>
+      </c>
+      <c r="F128">
+        <v>240</v>
+      </c>
+      <c r="G128">
+        <v>0.008030794677324593</v>
+      </c>
+      <c r="H128">
+        <v>0.07945864635985345</v>
+      </c>
+      <c r="I128">
+        <v>0.003474749973975122</v>
+      </c>
+      <c r="J128">
+        <v>0.02661768440157175</v>
+      </c>
+      <c r="K128">
+        <v>0.002793002990074456</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129">
+        <v>240</v>
+      </c>
+      <c r="D129">
+        <v>0.011296616634354</v>
+      </c>
+      <c r="E129">
+        <v>0.1309877999592572</v>
+      </c>
+      <c r="F129">
+        <v>240</v>
+      </c>
+      <c r="G129">
+        <v>0.00827308592852205</v>
+      </c>
+      <c r="H129">
+        <v>0.08071793150156736</v>
+      </c>
+      <c r="I129">
+        <v>0.003620553179644048</v>
+      </c>
+      <c r="J129">
+        <v>0.0267447370570153</v>
+      </c>
+      <c r="K129">
+        <v>0.002883233013562858</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130">
+        <v>1895</v>
+      </c>
+      <c r="D130">
+        <v>0.003129213582724333</v>
+      </c>
+      <c r="E130">
+        <v>0.7946415740298107</v>
+      </c>
+      <c r="F130">
+        <v>1895</v>
+      </c>
+      <c r="G130">
+        <v>0.06209449097514153</v>
+      </c>
+      <c r="H130">
+        <v>0.5076787013094872</v>
+      </c>
+      <c r="I130">
+        <v>0.03293037810362875</v>
+      </c>
+      <c r="J130">
+        <v>0.1030467898817733</v>
+      </c>
+      <c r="K130">
+        <v>0.02202847204171121</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C131">
+        <v>33813</v>
+      </c>
+      <c r="E131">
+        <v>6.408434301265515</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>1962</v>
+      </c>
+      <c r="D132">
+        <v>0.002453049411997199</v>
+      </c>
+      <c r="E132">
+        <v>0.8488412239821628</v>
+      </c>
+      <c r="F132">
+        <v>1962</v>
+      </c>
+      <c r="G132">
+        <v>0.06599291006568819</v>
+      </c>
+      <c r="H132">
+        <v>0.5333910979097709</v>
+      </c>
+      <c r="I132">
+        <v>0.04074781644158065</v>
+      </c>
+      <c r="J132">
+        <v>0.1148995488183573</v>
+      </c>
+      <c r="K132">
+        <v>0.02309358457569033</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C133">
+        <v>224</v>
+      </c>
+      <c r="D133">
+        <v>0.01240812125615776</v>
+      </c>
+      <c r="E133">
+        <v>0.1289930959464982</v>
+      </c>
+      <c r="F133">
+        <v>224</v>
+      </c>
+      <c r="G133">
+        <v>0.007484648958779871</v>
+      </c>
+      <c r="H133">
+        <v>0.07590043277014047</v>
+      </c>
+      <c r="I133">
+        <v>0.004138567019253969</v>
+      </c>
+      <c r="J133">
+        <v>0.03109811840113252</v>
+      </c>
+      <c r="K133">
+        <v>0.002581217093393207</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <v>228</v>
+      </c>
+      <c r="D134">
+        <v>0.01366352546028793</v>
+      </c>
+      <c r="E134">
+        <v>0.1376180329825729</v>
+      </c>
+      <c r="F134">
+        <v>228</v>
+      </c>
+      <c r="G134">
+        <v>0.00786990241613239</v>
+      </c>
+      <c r="H134">
+        <v>0.08176642318721861</v>
+      </c>
+      <c r="I134">
+        <v>0.004442108678631485</v>
+      </c>
+      <c r="J134">
+        <v>0.03255827014800161</v>
+      </c>
+      <c r="K134">
+        <v>0.002721787430346012</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135">
+        <v>1962</v>
+      </c>
+      <c r="D135">
+        <v>0.003470153431408107</v>
+      </c>
+      <c r="E135">
+        <v>0.8480311970924959</v>
+      </c>
+      <c r="F135">
+        <v>1962</v>
+      </c>
+      <c r="G135">
+        <v>0.06517410464584827</v>
+      </c>
+      <c r="H135">
+        <v>0.5277364669600502</v>
+      </c>
+      <c r="I135">
+        <v>0.04758634278550744</v>
+      </c>
+      <c r="J135">
+        <v>0.1152207906125113</v>
+      </c>
+      <c r="K135">
+        <v>0.02284560550469905</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C136">
+        <v>33813</v>
+      </c>
+      <c r="E136">
+        <v>6.598998532630503</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>1522</v>
+      </c>
+      <c r="D137">
+        <v>0.001885168603621423</v>
+      </c>
+      <c r="E137">
+        <v>0.6698476949241012</v>
+      </c>
+      <c r="F137">
+        <v>1522</v>
+      </c>
+      <c r="G137">
+        <v>0.05147949559614062</v>
+      </c>
+      <c r="H137">
+        <v>0.4203659229679033</v>
+      </c>
+      <c r="I137">
+        <v>0.03077912342268974</v>
+      </c>
+      <c r="J137">
+        <v>0.09391463978681713</v>
+      </c>
+      <c r="K137">
+        <v>0.01806221180595458</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138">
+        <v>153</v>
+      </c>
+      <c r="D138">
+        <v>0.009548035915941</v>
+      </c>
+      <c r="E138">
+        <v>0.100347839994356</v>
+      </c>
+      <c r="F138">
+        <v>153</v>
+      </c>
+      <c r="G138">
+        <v>0.005135484272614121</v>
+      </c>
+      <c r="H138">
+        <v>0.05378651735372841</v>
+      </c>
+      <c r="I138">
+        <v>0.003394348546862602</v>
+      </c>
+      <c r="J138">
+        <v>0.03077631909400225</v>
+      </c>
+      <c r="K138">
+        <v>0.001944751827977598</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139">
+        <v>150</v>
+      </c>
+      <c r="D139">
+        <v>0.009711671387776732</v>
+      </c>
+      <c r="E139">
+        <v>0.09929131995886564</v>
+      </c>
+      <c r="F139">
+        <v>150</v>
+      </c>
+      <c r="G139">
+        <v>0.005212701973505318</v>
+      </c>
+      <c r="H139">
+        <v>0.05282412422820926</v>
+      </c>
+      <c r="I139">
+        <v>0.003275050665251911</v>
+      </c>
+      <c r="J139">
+        <v>0.03104527876712382</v>
+      </c>
+      <c r="K139">
+        <v>0.001710700220428407</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140">
+        <v>1522</v>
+      </c>
+      <c r="D140">
+        <v>0.002830659272149205</v>
+      </c>
+      <c r="E140">
+        <v>0.6757300770841539</v>
+      </c>
+      <c r="F140">
+        <v>1522</v>
+      </c>
+      <c r="G140">
+        <v>0.05146373133175075</v>
+      </c>
+      <c r="H140">
+        <v>0.4186463376972824</v>
+      </c>
+      <c r="I140">
+        <v>0.03664199938066304</v>
+      </c>
+      <c r="J140">
+        <v>0.09547086281236261</v>
+      </c>
+      <c r="K140">
+        <v>0.01817353768274188</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C141">
+        <v>33813</v>
+      </c>
+      <c r="E141">
+        <v>6.273770166211762</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>2258</v>
+      </c>
+      <c r="D142">
+        <v>0.002798787201754749</v>
+      </c>
+      <c r="E142">
+        <v>1.002213297993876</v>
+      </c>
+      <c r="F142">
+        <v>2258</v>
+      </c>
+      <c r="G142">
+        <v>0.07612322794739157</v>
+      </c>
+      <c r="H142">
+        <v>0.6237989696674049</v>
+      </c>
+      <c r="I142">
+        <v>0.03889233944937587</v>
+      </c>
+      <c r="J142">
+        <v>0.1543727461248636</v>
+      </c>
+      <c r="K142">
+        <v>0.02692542702425271</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C143">
+        <v>241</v>
+      </c>
+      <c r="D143">
+        <v>0.01265997963491827</v>
+      </c>
+      <c r="E143">
+        <v>0.1422915169969201</v>
+      </c>
+      <c r="F143">
+        <v>241</v>
+      </c>
+      <c r="G143">
+        <v>0.00823102262802422</v>
+      </c>
+      <c r="H143">
+        <v>0.08308017184026539</v>
+      </c>
+      <c r="I143">
+        <v>0.004152341047301888</v>
+      </c>
+      <c r="J143">
+        <v>0.03532853571232408</v>
+      </c>
+      <c r="K143">
+        <v>0.002903188811615109</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144">
+        <v>241</v>
+      </c>
+      <c r="D144">
+        <v>0.01241879793815315</v>
+      </c>
+      <c r="E144">
+        <v>0.135236683068797</v>
+      </c>
+      <c r="F144">
+        <v>241</v>
+      </c>
+      <c r="G144">
+        <v>0.008325160830281675</v>
+      </c>
+      <c r="H144">
+        <v>0.08167753845918924</v>
+      </c>
+      <c r="I144">
+        <v>0.00403105653822422</v>
+      </c>
+      <c r="J144">
+        <v>0.02982976613566279</v>
+      </c>
+      <c r="K144">
+        <v>0.002864259178750217</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145">
+        <v>2258</v>
+      </c>
+      <c r="D145">
+        <v>0.003835981828160584</v>
+      </c>
+      <c r="E145">
+        <v>0.9584110099822283</v>
+      </c>
+      <c r="F145">
+        <v>2258</v>
+      </c>
+      <c r="G145">
+        <v>0.07524434803053737</v>
+      </c>
+      <c r="H145">
+        <v>0.6087198784807697</v>
+      </c>
+      <c r="I145">
+        <v>0.04285237356089056</v>
+      </c>
+      <c r="J145">
+        <v>0.1241859139408916</v>
+      </c>
+      <c r="K145">
+        <v>0.02650269994046539</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C146">
+        <v>33813</v>
+      </c>
+      <c r="E146">
+        <v>6.363477547070943</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>1445</v>
+      </c>
+      <c r="D147">
+        <v>0.001706945477053523</v>
+      </c>
+      <c r="E147">
+        <v>0.6202512389281765</v>
+      </c>
+      <c r="F147">
+        <v>1445</v>
+      </c>
+      <c r="G147">
+        <v>0.04811367799993604</v>
+      </c>
+      <c r="H147">
+        <v>0.3900314160855487</v>
+      </c>
+      <c r="I147">
+        <v>0.02693371055647731</v>
+      </c>
+      <c r="J147">
+        <v>0.08632678887806833</v>
+      </c>
+      <c r="K147">
+        <v>0.01695079752244055</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C148">
+        <v>133</v>
+      </c>
+      <c r="D148">
+        <v>0.009274335578083992</v>
+      </c>
+      <c r="E148">
+        <v>0.08938065601978451</v>
+      </c>
+      <c r="F148">
+        <v>133</v>
+      </c>
+      <c r="G148">
+        <v>0.004865775932557881</v>
+      </c>
+      <c r="H148">
+        <v>0.0496100876480341</v>
+      </c>
+      <c r="I148">
+        <v>0.003009788226336241</v>
+      </c>
+      <c r="J148">
+        <v>0.02517399797216058</v>
+      </c>
+      <c r="K148">
+        <v>0.001660626847296953</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149">
+        <v>127</v>
+      </c>
+      <c r="D149">
+        <v>0.009341252269223332</v>
+      </c>
+      <c r="E149">
+        <v>0.08665780606679618</v>
+      </c>
+      <c r="F149">
+        <v>127</v>
+      </c>
+      <c r="G149">
+        <v>0.004622074076905847</v>
+      </c>
+      <c r="H149">
+        <v>0.04919238726142794</v>
+      </c>
+      <c r="I149">
+        <v>0.003066348377615213</v>
+      </c>
+      <c r="J149">
+        <v>0.02340523421298712</v>
+      </c>
+      <c r="K149">
+        <v>0.001606646925210953</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150">
+        <v>1445</v>
+      </c>
+      <c r="D150">
+        <v>0.002528226585127413</v>
+      </c>
+      <c r="E150">
+        <v>0.6246327490080148</v>
+      </c>
+      <c r="F150">
+        <v>1445</v>
+      </c>
+      <c r="G150">
+        <v>0.04865153797436506</v>
+      </c>
+      <c r="H150">
+        <v>0.3890291866846383</v>
+      </c>
+      <c r="I150">
+        <v>0.03108761936891824</v>
+      </c>
+      <c r="J150">
+        <v>0.0860373058822006</v>
+      </c>
+      <c r="K150">
+        <v>0.01720100280363113</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C151">
+        <v>33813</v>
+      </c>
+      <c r="E151">
+        <v>6.631179588963278</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>2308</v>
+      </c>
+      <c r="D152">
+        <v>0.002602232969366014</v>
+      </c>
+      <c r="E152">
+        <v>0.9674303830834106</v>
+      </c>
+      <c r="F152">
+        <v>2308</v>
+      </c>
+      <c r="G152">
+        <v>0.07660455524455756</v>
+      </c>
+      <c r="H152">
+        <v>0.6144598609535024</v>
+      </c>
+      <c r="I152">
+        <v>0.03848125762306154</v>
+      </c>
+      <c r="J152">
+        <v>0.1274665211094543</v>
+      </c>
+      <c r="K152">
+        <v>0.02677402587141842</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C153">
+        <v>249</v>
+      </c>
+      <c r="D153">
+        <v>0.01308593084104359</v>
+      </c>
+      <c r="E153">
+        <v>0.1415784240234643</v>
+      </c>
+      <c r="F153">
+        <v>249</v>
+      </c>
+      <c r="G153">
+        <v>0.008365545538254082</v>
+      </c>
+      <c r="H153">
+        <v>0.085155846667476</v>
+      </c>
+      <c r="I153">
+        <v>0.004022082779556513</v>
+      </c>
+      <c r="J153">
+        <v>0.0322713942732662</v>
+      </c>
+      <c r="K153">
+        <v>0.002951867645606399</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154">
+        <v>247</v>
+      </c>
+      <c r="D154">
+        <v>0.01337705133482814</v>
+      </c>
+      <c r="E154">
+        <v>0.1429230410140008</v>
+      </c>
+      <c r="F154">
+        <v>247</v>
+      </c>
+      <c r="G154">
+        <v>0.008468273212201893</v>
+      </c>
+      <c r="H154">
+        <v>0.08601741190068424</v>
+      </c>
+      <c r="I154">
+        <v>0.004246938973665237</v>
+      </c>
+      <c r="J154">
+        <v>0.03214043169282377</v>
+      </c>
+      <c r="K154">
+        <v>0.002991372370161116</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155">
+        <v>2308</v>
+      </c>
+      <c r="D155">
+        <v>0.004108078079298139</v>
+      </c>
+      <c r="E155">
+        <v>1.047031822032295</v>
+      </c>
+      <c r="F155">
+        <v>2308</v>
+      </c>
+      <c r="G155">
+        <v>0.08290819078683853</v>
+      </c>
+      <c r="H155">
+        <v>0.6620761221274734</v>
+      </c>
+      <c r="I155">
+        <v>0.04790547420270741</v>
+      </c>
+      <c r="J155">
+        <v>0.1353759277844802</v>
+      </c>
+      <c r="K155">
+        <v>0.02908396243583411</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C156">
+        <v>33813</v>
+      </c>
+      <c r="E156">
+        <v>6.469856349169277</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>1631</v>
+      </c>
+      <c r="D157">
+        <v>0.001981425797566772</v>
+      </c>
+      <c r="E157">
+        <v>0.7019093609414995</v>
+      </c>
+      <c r="F157">
+        <v>1631</v>
+      </c>
+      <c r="G157">
+        <v>0.05497186922002584</v>
+      </c>
+      <c r="H157">
+        <v>0.4411834488855675</v>
+      </c>
+      <c r="I157">
+        <v>0.03252525033894926</v>
+      </c>
+      <c r="J157">
+        <v>0.09446603164542466</v>
+      </c>
+      <c r="K157">
+        <v>0.01914851716719568</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C158">
+        <v>144</v>
+      </c>
+      <c r="D158">
+        <v>0.01011139363981783</v>
+      </c>
+      <c r="E158">
+        <v>0.1225613269489259</v>
+      </c>
+      <c r="F158">
+        <v>144</v>
+      </c>
+      <c r="G158">
+        <v>0.005174488993361592</v>
+      </c>
+      <c r="H158">
+        <v>0.05420986202079803</v>
+      </c>
+      <c r="I158">
+        <v>0.003160741296596825</v>
+      </c>
+      <c r="J158">
+        <v>0.05296530050691217</v>
+      </c>
+      <c r="K158">
+        <v>0.001732812379486859</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159">
+        <v>146</v>
+      </c>
+      <c r="D159">
+        <v>0.01037982851266861</v>
+      </c>
+      <c r="E159">
+        <v>0.09437167306896299</v>
+      </c>
+      <c r="F159">
+        <v>146</v>
+      </c>
+      <c r="G159">
+        <v>0.005166613729670644</v>
+      </c>
+      <c r="H159">
+        <v>0.05481782054994255</v>
+      </c>
+      <c r="I159">
+        <v>0.003157358500175178</v>
+      </c>
+      <c r="J159">
+        <v>0.02390364836901426</v>
+      </c>
+      <c r="K159">
+        <v>0.001803557621315122</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160">
+        <v>1631</v>
+      </c>
+      <c r="D160">
+        <v>0.002967331325635314</v>
+      </c>
+      <c r="E160">
+        <v>0.7329801530577242</v>
+      </c>
+      <c r="F160">
+        <v>1631</v>
+      </c>
+      <c r="G160">
+        <v>0.05669705523177981</v>
+      </c>
+      <c r="H160">
+        <v>0.4584482538048178</v>
+      </c>
+      <c r="I160">
+        <v>0.03829265513923019</v>
+      </c>
+      <c r="J160">
+        <v>0.09762003098148853</v>
+      </c>
+      <c r="K160">
+        <v>0.02011044090613723</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C161">
+        <v>33813</v>
+      </c>
+      <c r="E161">
+        <v>6.384680052986369</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>1760</v>
+      </c>
+      <c r="D162">
+        <v>0.002160738222301006</v>
+      </c>
+      <c r="E162">
+        <v>0.7690313799539581</v>
+      </c>
+      <c r="F162">
+        <v>1760</v>
+      </c>
+      <c r="G162">
+        <v>0.06002193735912442</v>
+      </c>
+      <c r="H162">
+        <v>0.4840686025563627</v>
+      </c>
+      <c r="I162">
+        <v>0.03346814890392125</v>
+      </c>
+      <c r="J162">
+        <v>0.1048514076974243</v>
+      </c>
+      <c r="K162">
+        <v>0.02093991963192821</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C163">
+        <v>216</v>
+      </c>
+      <c r="D163">
+        <v>0.01233870547730476</v>
+      </c>
+      <c r="E163">
+        <v>0.1310752260033041</v>
+      </c>
+      <c r="F163">
+        <v>216</v>
+      </c>
+      <c r="G163">
+        <v>0.007499893428757787</v>
+      </c>
+      <c r="H163">
+        <v>0.07696359301917255</v>
+      </c>
+      <c r="I163">
+        <v>0.004114652634598315</v>
+      </c>
+      <c r="J163">
+        <v>0.03179267630912364</v>
+      </c>
+      <c r="K163">
+        <v>0.002644610940478742</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164">
+        <v>202</v>
+      </c>
+      <c r="D164">
+        <v>0.01136052457150072</v>
+      </c>
+      <c r="E164">
+        <v>0.1196095329942182</v>
+      </c>
+      <c r="F164">
+        <v>202</v>
+      </c>
+      <c r="G164">
+        <v>0.006732197012752295</v>
+      </c>
+      <c r="H164">
+        <v>0.07063967175781727</v>
+      </c>
+      <c r="I164">
+        <v>0.003835586947388947</v>
+      </c>
+      <c r="J164">
+        <v>0.02884449646808207</v>
+      </c>
+      <c r="K164">
+        <v>0.002342745428904891</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165">
+        <v>1760</v>
+      </c>
+      <c r="D165">
+        <v>0.003089824342168868</v>
+      </c>
+      <c r="E165">
+        <v>0.7515968889929354</v>
+      </c>
+      <c r="F165">
+        <v>1760</v>
+      </c>
+      <c r="G165">
+        <v>0.05703871545847505</v>
+      </c>
+      <c r="H165">
+        <v>0.4720814483007416</v>
+      </c>
+      <c r="I165">
+        <v>0.03777295630425215</v>
+      </c>
+      <c r="J165">
+        <v>0.1023361571133137</v>
+      </c>
+      <c r="K165">
+        <v>0.02028187247924507</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C166">
+        <v>33813</v>
+      </c>
+      <c r="E166">
+        <v>6.533366225310601</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>2097</v>
+      </c>
+      <c r="D167">
+        <v>0.002458154922351241</v>
+      </c>
+      <c r="E167">
+        <v>0.8804014490451664</v>
+      </c>
+      <c r="F167">
+        <v>2097</v>
+      </c>
+      <c r="G167">
+        <v>0.06815460021607578</v>
+      </c>
+      <c r="H167">
+        <v>0.5576804251177236</v>
+      </c>
+      <c r="I167">
+        <v>0.03805119346361607</v>
+      </c>
+      <c r="J167">
+        <v>0.1186757346149534</v>
+      </c>
+      <c r="K167">
+        <v>0.02414066472556442</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C168">
+        <v>191</v>
+      </c>
+      <c r="D168">
+        <v>0.01100250252056867</v>
+      </c>
+      <c r="E168">
+        <v>0.1131546449614689</v>
+      </c>
+      <c r="F168">
+        <v>191</v>
+      </c>
+      <c r="G168">
+        <v>0.006291712517850101</v>
+      </c>
+      <c r="H168">
+        <v>0.06567085476126522</v>
+      </c>
+      <c r="I168">
+        <v>0.003595204907469451</v>
+      </c>
+      <c r="J168">
+        <v>0.02868478652089834</v>
+      </c>
+      <c r="K168">
+        <v>0.002226697048172355</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169">
+        <v>192</v>
+      </c>
+      <c r="D169">
+        <v>0.01183085085358471</v>
+      </c>
+      <c r="E169">
+        <v>0.1159879859769717</v>
+      </c>
+      <c r="F169">
+        <v>192</v>
+      </c>
+      <c r="G169">
+        <v>0.006444856058806181</v>
+      </c>
+      <c r="H169">
+        <v>0.06750786409247667</v>
+      </c>
+      <c r="I169">
+        <v>0.003738996339961886</v>
+      </c>
+      <c r="J169">
+        <v>0.02923727850429714</v>
+      </c>
+      <c r="K169">
+        <v>0.002290463773533702</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170">
+        <v>2097</v>
+      </c>
+      <c r="D170">
+        <v>0.003703247639350593</v>
+      </c>
+      <c r="E170">
+        <v>0.9233974649105221</v>
+      </c>
+      <c r="F170">
+        <v>2097</v>
+      </c>
+      <c r="G170">
+        <v>0.07117024273611605</v>
+      </c>
+      <c r="H170">
+        <v>0.5811141678132117</v>
+      </c>
+      <c r="I170">
+        <v>0.04505272745154798</v>
+      </c>
+      <c r="J170">
+        <v>0.12411179614719</v>
+      </c>
+      <c r="K170">
+        <v>0.02505313232541084</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C171">
+        <v>33813</v>
+      </c>
+      <c r="E171">
+        <v>6.523842373047955</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>1619</v>
+      </c>
+      <c r="D172">
+        <v>0.00200317392591387</v>
+      </c>
+      <c r="E172">
+        <v>0.7089287610724568</v>
+      </c>
+      <c r="F172">
+        <v>1619</v>
+      </c>
+      <c r="G172">
+        <v>0.05265287007205188</v>
+      </c>
+      <c r="H172">
+        <v>0.4319575130939484</v>
+      </c>
+      <c r="I172">
+        <v>0.03140582039486617</v>
+      </c>
+      <c r="J172">
+        <v>0.1175657039275393</v>
+      </c>
+      <c r="K172">
+        <v>0.01850029884371907</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C173">
+        <v>191</v>
+      </c>
+      <c r="D173">
+        <v>0.01095181540586054</v>
+      </c>
+      <c r="E173">
+        <v>0.1106991010019556</v>
+      </c>
+      <c r="F173">
+        <v>191</v>
+      </c>
+      <c r="G173">
+        <v>0.006377124693244696</v>
+      </c>
+      <c r="H173">
+        <v>0.06463910802267492</v>
+      </c>
+      <c r="I173">
+        <v>0.003623341792263091</v>
+      </c>
+      <c r="J173">
+        <v>0.02723458083346486</v>
+      </c>
+      <c r="K173">
+        <v>0.002178384340368211</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174">
+        <v>191</v>
+      </c>
+      <c r="D174">
+        <v>0.0110365804284811</v>
+      </c>
+      <c r="E174">
+        <v>0.1122028870740905</v>
+      </c>
+      <c r="F174">
+        <v>191</v>
+      </c>
+      <c r="G174">
+        <v>0.00635109469294548</v>
+      </c>
+      <c r="H174">
+        <v>0.06431117537431419</v>
+      </c>
+      <c r="I174">
+        <v>0.003645005403086543</v>
+      </c>
+      <c r="J174">
+        <v>0.02912943914998323</v>
+      </c>
+      <c r="K174">
+        <v>0.002172629465349019</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175">
+        <v>1619</v>
+      </c>
+      <c r="D175">
+        <v>0.002886672737076879</v>
+      </c>
+      <c r="E175">
+        <v>0.6892895010532811</v>
+      </c>
+      <c r="F175">
+        <v>1619</v>
+      </c>
+      <c r="G175">
+        <v>0.05271650128997862</v>
+      </c>
+      <c r="H175">
+        <v>0.4324090840527788</v>
+      </c>
+      <c r="I175">
+        <v>0.03578133811242878</v>
+      </c>
+      <c r="J175">
+        <v>0.0932724658632651</v>
+      </c>
+      <c r="K175">
+        <v>0.01840987498871982</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C176">
+        <v>33813</v>
+      </c>
+      <c r="E176">
+        <v>6.556451438809745</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C177">
+        <v>1709</v>
+      </c>
+      <c r="D177">
+        <v>0.002062927116639912</v>
+      </c>
+      <c r="E177">
+        <v>0.7203467059880495</v>
+      </c>
+      <c r="F177">
+        <v>1709</v>
+      </c>
+      <c r="G177">
+        <v>0.05585915932897478</v>
+      </c>
+      <c r="H177">
+        <v>0.4580754223279655</v>
+      </c>
+      <c r="I177">
+        <v>0.03230633330531418</v>
+      </c>
+      <c r="J177">
+        <v>0.09385532792657614</v>
+      </c>
+      <c r="K177">
+        <v>0.01972925825975835</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C178">
+        <v>200</v>
+      </c>
+      <c r="D178">
+        <v>0.0121595652308315</v>
+      </c>
+      <c r="E178">
+        <v>0.1187649230705574</v>
+      </c>
+      <c r="F178">
+        <v>200</v>
+      </c>
+      <c r="G178">
+        <v>0.006750831962563097</v>
+      </c>
+      <c r="H178">
+        <v>0.07234559452626854</v>
+      </c>
+      <c r="I178">
+        <v>0.003820756915956736</v>
+      </c>
+      <c r="J178">
+        <v>0.02640571247320622</v>
+      </c>
+      <c r="K178">
+        <v>0.002387201529927552</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C179">
+        <v>210</v>
+      </c>
+      <c r="D179">
+        <v>0.01293523691128939</v>
+      </c>
+      <c r="E179">
+        <v>0.1243534559616819</v>
+      </c>
+      <c r="F179">
+        <v>210</v>
+      </c>
+      <c r="G179">
+        <v>0.007002318627201021</v>
+      </c>
+      <c r="H179">
+        <v>0.07475274614989758</v>
+      </c>
+      <c r="I179">
+        <v>0.003961207810789347</v>
+      </c>
+      <c r="J179">
+        <v>0.02879479748662561</v>
+      </c>
+      <c r="K179">
+        <v>0.002450378844514489</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180">
+        <v>1709</v>
+      </c>
+      <c r="D180">
+        <v>0.00292850739788264</v>
+      </c>
+      <c r="E180">
+        <v>0.725076713017188</v>
+      </c>
+      <c r="F180">
+        <v>1709</v>
+      </c>
+      <c r="G180">
+        <v>0.05626371107064188</v>
+      </c>
+      <c r="H180">
+        <v>0.458888566470705</v>
+      </c>
+      <c r="I180">
+        <v>0.0362940994091332</v>
+      </c>
+      <c r="J180">
+        <v>0.09343201061710715</v>
+      </c>
+      <c r="K180">
+        <v>0.01973018248099834</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C181">
+        <v>33813</v>
+      </c>
+      <c r="E181">
+        <v>6.242725134012289</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>1430</v>
+      </c>
+      <c r="D182">
+        <v>0.001798750599846244</v>
+      </c>
+      <c r="E182">
+        <v>0.621755335945636</v>
+      </c>
+      <c r="F182">
+        <v>1430</v>
+      </c>
+      <c r="G182">
+        <v>0.04710913298185915</v>
+      </c>
+      <c r="H182">
+        <v>0.3922415504930541</v>
+      </c>
+      <c r="I182">
+        <v>0.02955533750355244</v>
+      </c>
+      <c r="J182">
+        <v>0.08518207992892712</v>
+      </c>
+      <c r="K182">
+        <v>0.01674223295412958</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C183">
+        <v>184</v>
+      </c>
+      <c r="D183">
+        <v>0.01108399184886366</v>
+      </c>
+      <c r="E183">
+        <v>0.1065401630476117</v>
+      </c>
+      <c r="F183">
+        <v>184</v>
+      </c>
+      <c r="G183">
+        <v>0.006287010968662798</v>
+      </c>
+      <c r="H183">
+        <v>0.06447383156046271</v>
+      </c>
+      <c r="I183">
+        <v>0.003444550791755319</v>
+      </c>
+      <c r="J183">
+        <v>0.02370883640833199</v>
+      </c>
+      <c r="K183">
+        <v>0.002167107304558158</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184">
+        <v>182</v>
+      </c>
+      <c r="D184">
+        <v>0.01068713434506208</v>
+      </c>
+      <c r="E184">
+        <v>0.1064207049785182</v>
+      </c>
+      <c r="F184">
+        <v>182</v>
+      </c>
+      <c r="G184">
+        <v>0.006090840790420771</v>
+      </c>
+      <c r="H184">
+        <v>0.06317831366322935</v>
+      </c>
+      <c r="I184">
+        <v>0.003532128874212503</v>
+      </c>
+      <c r="J184">
+        <v>0.02517399156931788</v>
+      </c>
+      <c r="K184">
+        <v>0.002104529296047986</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C185">
+        <v>1430</v>
+      </c>
+      <c r="D185">
+        <v>0.002679083263501525</v>
+      </c>
+      <c r="E185">
+        <v>0.6299299630336463</v>
+      </c>
+      <c r="F185">
+        <v>1430</v>
+      </c>
+      <c r="G185">
+        <v>0.0474537560949102</v>
+      </c>
+      <c r="H185">
+        <v>0.3938553998013958</v>
+      </c>
+      <c r="I185">
+        <v>0.03443880181293935</v>
+      </c>
+      <c r="J185">
+        <v>0.08580226148478687</v>
+      </c>
+      <c r="K185">
+        <v>0.01685447245836258</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C186">
+        <v>33813</v>
+      </c>
+      <c r="E186">
+        <v>6.589656109921634</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C187">
+        <v>2164</v>
+      </c>
+      <c r="D187">
+        <v>0.002489748760126531</v>
+      </c>
+      <c r="E187">
+        <v>0.9231620639329776</v>
+      </c>
+      <c r="F187">
+        <v>2164</v>
+      </c>
+      <c r="G187">
+        <v>0.07213427207898349</v>
+      </c>
+      <c r="H187">
+        <v>0.5898639617953449</v>
+      </c>
+      <c r="I187">
+        <v>0.03617839876096696</v>
+      </c>
+      <c r="J187">
+        <v>0.1209072478814051</v>
+      </c>
+      <c r="K187">
+        <v>0.02569331869017333</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C188">
+        <v>179</v>
+      </c>
+      <c r="D188">
+        <v>0.01105101220309734</v>
+      </c>
+      <c r="E188">
+        <v>0.1101650570053607</v>
+      </c>
+      <c r="F188">
+        <v>179</v>
+      </c>
+      <c r="G188">
+        <v>0.006144243525341153</v>
+      </c>
+      <c r="H188">
+        <v>0.06337180209811777</v>
+      </c>
+      <c r="I188">
+        <v>0.003330362611450255</v>
+      </c>
+      <c r="J188">
+        <v>0.02889875171240419</v>
+      </c>
+      <c r="K188">
+        <v>0.002094427822157741</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C189">
+        <v>181</v>
+      </c>
+      <c r="D189">
+        <v>0.01176056324038655</v>
+      </c>
+      <c r="E189">
+        <v>0.11517115496099</v>
+      </c>
+      <c r="F189">
+        <v>181</v>
+      </c>
+      <c r="G189">
+        <v>0.006311380653642118</v>
+      </c>
+      <c r="H189">
+        <v>0.06668797694146633</v>
+      </c>
+      <c r="I189">
+        <v>0.003542612423188984</v>
+      </c>
+      <c r="J189">
+        <v>0.03003648191224784</v>
+      </c>
+      <c r="K189">
+        <v>0.002145787701010704</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C190">
+        <v>2164</v>
+      </c>
+      <c r="D190">
+        <v>0.00353829248342663</v>
+      </c>
+      <c r="E190">
+        <v>0.9458060510223731</v>
+      </c>
+      <c r="F190">
+        <v>2164</v>
+      </c>
+      <c r="G190">
+        <v>0.07160984782967716</v>
+      </c>
+      <c r="H190">
+        <v>0.6111743253422901</v>
+      </c>
+      <c r="I190">
+        <v>0.04105779691599309</v>
+      </c>
+      <c r="J190">
+        <v>0.1193384497892112</v>
+      </c>
+      <c r="K190">
+        <v>0.02538359095342457</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C191">
+        <v>33813</v>
+      </c>
+      <c r="E191">
+        <v>6.509967314894311</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C192">
+        <v>1868</v>
+      </c>
+      <c r="D192">
+        <v>0.002232740982435644</v>
+      </c>
+      <c r="E192">
+        <v>0.8044158889679238</v>
+      </c>
+      <c r="F192">
+        <v>1868</v>
+      </c>
+      <c r="G192">
+        <v>0.06205927941482514</v>
+      </c>
+      <c r="H192">
+        <v>0.5135512264678255</v>
+      </c>
+      <c r="I192">
+        <v>0.03284774138592184</v>
+      </c>
+      <c r="J192">
+        <v>0.1071342143695801</v>
+      </c>
+      <c r="K192">
+        <v>0.02183299418538809</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C193">
+        <v>189</v>
+      </c>
+      <c r="D193">
+        <v>0.01136272470466793</v>
+      </c>
+      <c r="E193">
+        <v>0.115007039043121</v>
+      </c>
+      <c r="F193">
+        <v>189</v>
+      </c>
+      <c r="G193">
+        <v>0.006541660521179438</v>
+      </c>
+      <c r="H193">
+        <v>0.06749543733894825</v>
+      </c>
+      <c r="I193">
+        <v>0.003582827397622168</v>
+      </c>
+      <c r="J193">
+        <v>0.02826203871518373</v>
+      </c>
+      <c r="K193">
+        <v>0.002301193657331169</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C194">
+        <v>200</v>
+      </c>
+      <c r="D194">
+        <v>0.01179888704791665</v>
+      </c>
+      <c r="E194">
+        <v>0.1190952270990238</v>
+      </c>
+      <c r="F194">
+        <v>200</v>
+      </c>
+      <c r="G194">
+        <v>0.006845892174169421</v>
+      </c>
+      <c r="H194">
+        <v>0.07081565377302468</v>
+      </c>
+      <c r="I194">
+        <v>0.00366996368393302</v>
+      </c>
+      <c r="J194">
+        <v>0.02855821081902832</v>
+      </c>
+      <c r="K194">
+        <v>0.002276858664117754</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C195">
+        <v>1868</v>
+      </c>
+      <c r="D195">
+        <v>0.003328232909552753</v>
+      </c>
+      <c r="E195">
+        <v>0.8106190779944882</v>
+      </c>
+      <c r="F195">
+        <v>1868</v>
+      </c>
+      <c r="G195">
+        <v>0.06246385630220175</v>
+      </c>
+      <c r="H195">
+        <v>0.5115117381792516</v>
+      </c>
+      <c r="I195">
+        <v>0.03897068637888879</v>
+      </c>
+      <c r="J195">
+        <v>0.1088246353901923</v>
+      </c>
+      <c r="K195">
+        <v>0.02190732269082218</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C196">
+        <v>33813</v>
+      </c>
+      <c r="E196">
+        <v>6.320683168945834</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <v>992</v>
+      </c>
+      <c r="D197">
+        <v>0.001279445015825331</v>
+      </c>
+      <c r="E197">
+        <v>0.4373045009560883</v>
+      </c>
+      <c r="F197">
+        <v>992</v>
+      </c>
+      <c r="G197">
+        <v>0.03397753601893783</v>
+      </c>
+      <c r="H197">
+        <v>0.276370796142146</v>
+      </c>
+      <c r="I197">
+        <v>0.0193365418817848</v>
+      </c>
+      <c r="J197">
+        <v>0.05917146359570324</v>
+      </c>
+      <c r="K197">
+        <v>0.01201688579749316</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C198">
+        <v>111</v>
+      </c>
+      <c r="D198">
+        <v>0.007758453371934593</v>
+      </c>
+      <c r="E198">
+        <v>0.07369274389930069</v>
+      </c>
+      <c r="F198">
+        <v>111</v>
+      </c>
+      <c r="G198">
+        <v>0.004453964182175696</v>
+      </c>
+      <c r="H198">
+        <v>0.04239875660277903</v>
+      </c>
+      <c r="I198">
+        <v>0.002663011895492673</v>
+      </c>
+      <c r="J198">
+        <v>0.01835111470427364</v>
+      </c>
+      <c r="K198">
+        <v>0.001560137490741909</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199">
+        <v>111</v>
+      </c>
+      <c r="D199">
+        <v>0.007459811051376164</v>
+      </c>
+      <c r="E199">
+        <v>0.07058048795443028</v>
+      </c>
+      <c r="F199">
+        <v>111</v>
+      </c>
+      <c r="G199">
+        <v>0.003995402134023607</v>
+      </c>
+      <c r="H199">
+        <v>0.04097941180225462</v>
+      </c>
+      <c r="I199">
+        <v>0.002630538656376302</v>
+      </c>
+      <c r="J199">
+        <v>0.01731186569668353</v>
+      </c>
+      <c r="K199">
+        <v>0.001476292265579104</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C200">
+        <v>992</v>
+      </c>
+      <c r="D200">
+        <v>0.001831490779295564</v>
+      </c>
+      <c r="E200">
+        <v>0.4380999730201438</v>
+      </c>
+      <c r="F200">
+        <v>992</v>
+      </c>
+      <c r="G200">
+        <v>0.03346151357982308</v>
+      </c>
+      <c r="H200">
+        <v>0.2742338522803038</v>
+      </c>
+      <c r="I200">
+        <v>0.02302904531825334</v>
+      </c>
+      <c r="J200">
+        <v>0.05978339503053576</v>
+      </c>
+      <c r="K200">
+        <v>0.01178460859227926</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C201">
+        <v>33813</v>
+      </c>
+      <c r="E201">
+        <v>6.829107319004834</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C202">
+        <v>1992</v>
+      </c>
+      <c r="D202">
+        <v>0.002391316113062203</v>
+      </c>
+      <c r="E202">
+        <v>0.8597881130408496</v>
+      </c>
+      <c r="F202">
+        <v>1992</v>
+      </c>
+      <c r="G202">
+        <v>0.06660421949345618</v>
+      </c>
+      <c r="H202">
+        <v>0.5420059059979394</v>
+      </c>
+      <c r="I202">
+        <v>0.03875626740045846</v>
+      </c>
+      <c r="J202">
+        <v>0.1171405561035499</v>
+      </c>
+      <c r="K202">
+        <v>0.02359360572881997</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C203">
+        <v>190</v>
+      </c>
+      <c r="D203">
+        <v>0.01155977637972683</v>
+      </c>
+      <c r="E203">
+        <v>0.1193361059995368</v>
+      </c>
+      <c r="F203">
+        <v>190</v>
+      </c>
+      <c r="G203">
+        <v>0.006832117564044893</v>
+      </c>
+      <c r="H203">
+        <v>0.06996117858216166</v>
+      </c>
+      <c r="I203">
+        <v>0.003985696472227573</v>
+      </c>
+      <c r="J203">
+        <v>0.02915609010960907</v>
+      </c>
+      <c r="K203">
+        <v>0.002427739324048162</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C204">
+        <v>179</v>
+      </c>
+      <c r="D204">
+        <v>0.01164688507560641</v>
+      </c>
+      <c r="E204">
+        <v>0.1147202660795301</v>
+      </c>
+      <c r="F204">
+        <v>179</v>
+      </c>
+      <c r="G204">
+        <v>0.006095602991990745</v>
+      </c>
+      <c r="H204">
+        <v>0.06612640921957791</v>
+      </c>
+      <c r="I204">
+        <v>0.003727748058736324</v>
+      </c>
+      <c r="J204">
+        <v>0.03024719539098442</v>
+      </c>
+      <c r="K204">
+        <v>0.002171482774429023</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C205">
+        <v>1992</v>
+      </c>
+      <c r="D205">
+        <v>0.003575054928660393</v>
+      </c>
+      <c r="E205">
+        <v>0.9006118139950559</v>
+      </c>
+      <c r="F205">
+        <v>1992</v>
+      </c>
+      <c r="G205">
+        <v>0.06662621512077749</v>
+      </c>
+      <c r="H205">
+        <v>0.5488282415317371</v>
+      </c>
+      <c r="I205">
+        <v>0.04528886347543448</v>
+      </c>
+      <c r="J205">
+        <v>0.1448454615892842</v>
+      </c>
+      <c r="K205">
+        <v>0.02349848707672209</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C206">
+        <v>33813</v>
+      </c>
+      <c r="E206">
+        <v>6.350766033981927</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C207">
+        <v>2034</v>
+      </c>
+      <c r="D207">
+        <v>0.00226335902698338</v>
+      </c>
+      <c r="E207">
+        <v>0.8683905790094286</v>
+      </c>
+      <c r="F207">
+        <v>2034</v>
+      </c>
+      <c r="G207">
+        <v>0.06853638077154756</v>
+      </c>
+      <c r="H207">
+        <v>0.5571072419406846</v>
+      </c>
+      <c r="I207">
+        <v>0.03167177445720881</v>
+      </c>
+      <c r="J207">
+        <v>0.1131806205958128</v>
+      </c>
+      <c r="K207">
+        <v>0.02393745409790426</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C208">
+        <v>138</v>
+      </c>
+      <c r="D208">
+        <v>0.01122167578432709</v>
+      </c>
+      <c r="E208">
+        <v>0.1057873771060258</v>
+      </c>
+      <c r="F208">
+        <v>138</v>
+      </c>
+      <c r="G208">
+        <v>0.005856665666215122</v>
+      </c>
+      <c r="H208">
+        <v>0.0612467770697549</v>
+      </c>
+      <c r="I208">
+        <v>0.003413977916352451</v>
+      </c>
+      <c r="J208">
+        <v>0.02735199697781354</v>
+      </c>
+      <c r="K208">
+        <v>0.00199512648396194</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C209">
+        <v>132</v>
+      </c>
+      <c r="D209">
+        <v>0.01028938265517354</v>
+      </c>
+      <c r="E209">
+        <v>0.09752559009939432</v>
+      </c>
+      <c r="F209">
+        <v>132</v>
+      </c>
+      <c r="G209">
+        <v>0.005124051938764751</v>
+      </c>
+      <c r="H209">
+        <v>0.05503721081186086</v>
+      </c>
+      <c r="I209">
+        <v>0.003245182218961418</v>
+      </c>
+      <c r="J209">
+        <v>0.02729555172845721</v>
+      </c>
+      <c r="K209">
+        <v>0.00166929594706744</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C210">
+        <v>2034</v>
+      </c>
+      <c r="D210">
+        <v>0.003245217376388609</v>
+      </c>
+      <c r="E210">
+        <v>0.8488732730038464</v>
+      </c>
+      <c r="F210">
+        <v>2034</v>
+      </c>
+      <c r="G210">
+        <v>0.06645509705413133</v>
+      </c>
+      <c r="H210">
+        <v>0.541118346969597</v>
+      </c>
+      <c r="I210">
+        <v>0.03570436791051179</v>
+      </c>
+      <c r="J210">
+        <v>0.10885480127763</v>
+      </c>
+      <c r="K210">
+        <v>0.0238751795841381</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C211">
+        <v>33813</v>
+      </c>
+      <c r="E211">
+        <v>6.509082663105801</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C212">
+        <v>1305</v>
+      </c>
+      <c r="D212">
+        <v>0.001623423886485398</v>
+      </c>
+      <c r="E212">
+        <v>0.565181637997739</v>
+      </c>
+      <c r="F212">
+        <v>1305</v>
+      </c>
+      <c r="G212">
+        <v>0.04262007842771709</v>
+      </c>
+      <c r="H212">
+        <v>0.3520907197380438</v>
+      </c>
+      <c r="I212">
+        <v>0.02713064488489181</v>
+      </c>
+      <c r="J212">
+        <v>0.08189630054403096</v>
+      </c>
+      <c r="K212">
+        <v>0.01526797038968652</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C213">
+        <v>152</v>
+      </c>
+      <c r="D213">
+        <v>0.009419379755854607</v>
+      </c>
+      <c r="E213">
+        <v>0.09323624498210847</v>
+      </c>
+      <c r="F213">
+        <v>152</v>
+      </c>
+      <c r="G213">
+        <v>0.005153104546479881</v>
+      </c>
+      <c r="H213">
+        <v>0.05420512205455452</v>
+      </c>
+      <c r="I213">
+        <v>0.003212172887288034</v>
+      </c>
+      <c r="J213">
+        <v>0.02349475596565753</v>
+      </c>
+      <c r="K213">
+        <v>0.001809643232263625</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C214">
+        <v>153</v>
+      </c>
+      <c r="D214">
+        <v>0.009785232716239989</v>
+      </c>
+      <c r="E214">
+        <v>0.09531817201059312</v>
+      </c>
+      <c r="F214">
+        <v>153</v>
+      </c>
+      <c r="G214">
+        <v>0.005238649784587324</v>
+      </c>
+      <c r="H214">
+        <v>0.05509350693318993</v>
+      </c>
+      <c r="I214">
+        <v>0.003244252176955342</v>
+      </c>
+      <c r="J214">
+        <v>0.02461436542216688</v>
+      </c>
+      <c r="K214">
+        <v>0.001782231614924967</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C215">
+        <v>1305</v>
+      </c>
+      <c r="D215">
+        <v>0.002429737127386034</v>
+      </c>
+      <c r="E215">
+        <v>0.5702447129879147</v>
+      </c>
+      <c r="F215">
+        <v>1305</v>
+      </c>
+      <c r="G215">
+        <v>0.04269011155702174</v>
+      </c>
+      <c r="H215">
+        <v>0.3535855713998899</v>
+      </c>
+      <c r="I215">
+        <v>0.03161743981763721</v>
+      </c>
+      <c r="J215">
+        <v>0.08064669603481889</v>
+      </c>
+      <c r="K215">
+        <v>0.01533233153168112</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C216">
+        <v>33813</v>
+      </c>
+      <c r="E216">
+        <v>6.241791725857183</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
+      <c r="A217" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C217">
+        <v>2401</v>
+      </c>
+      <c r="D217">
+        <v>0.002714516478590667</v>
+      </c>
+      <c r="E217">
+        <v>1.022541109006852</v>
+      </c>
+      <c r="F217">
+        <v>2401</v>
+      </c>
+      <c r="G217">
+        <v>0.07837205962277949</v>
+      </c>
+      <c r="H217">
+        <v>0.6678239075699821</v>
+      </c>
+      <c r="I217">
+        <v>0.03465181216597557</v>
+      </c>
+      <c r="J217">
+        <v>0.1293921890901402</v>
+      </c>
+      <c r="K217">
+        <v>0.02745447063352913</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C218">
+        <v>261</v>
+      </c>
+      <c r="D218">
+        <v>0.01179344102274626</v>
+      </c>
+      <c r="E218">
+        <v>0.1435206650057808</v>
+      </c>
+      <c r="F218">
+        <v>261</v>
+      </c>
+      <c r="G218">
+        <v>0.008814615663141012</v>
+      </c>
+      <c r="H218">
+        <v>0.08780600584577769</v>
+      </c>
+      <c r="I218">
+        <v>0.003655924811027944</v>
+      </c>
+      <c r="J218">
+        <v>0.0306921472074464</v>
+      </c>
+      <c r="K218">
+        <v>0.003128028591163456</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C219">
+        <v>267</v>
+      </c>
+      <c r="D219">
+        <v>0.01265527121722698</v>
+      </c>
+      <c r="E219">
+        <v>0.149545994005166</v>
+      </c>
+      <c r="F219">
+        <v>267</v>
+      </c>
+      <c r="G219">
+        <v>0.008998536854051054</v>
+      </c>
+      <c r="H219">
+        <v>0.09168541349936277</v>
+      </c>
+      <c r="I219">
+        <v>0.003936643130145967</v>
+      </c>
+      <c r="J219">
+        <v>0.03207654866855592</v>
+      </c>
+      <c r="K219">
+        <v>0.003198102116584778</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C220">
+        <v>2401</v>
+      </c>
+      <c r="D220">
+        <v>0.003913239692337811</v>
+      </c>
+      <c r="E220">
+        <v>1.003901434014551</v>
+      </c>
+      <c r="F220">
+        <v>2401</v>
+      </c>
+      <c r="G220">
+        <v>0.07805805455427617</v>
+      </c>
+      <c r="H220">
+        <v>0.6440868430072442</v>
+      </c>
+      <c r="I220">
+        <v>0.0408267208840698</v>
+      </c>
+      <c r="J220">
+        <v>0.1288321275496855</v>
+      </c>
+      <c r="K220">
+        <v>0.02740383590571582</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C221">
+        <v>33813</v>
+      </c>
+      <c r="E221">
+        <v>6.33561597194057</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
+      <c r="A222" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C222">
+        <v>1783</v>
+      </c>
+      <c r="D222">
+        <v>0.002309897099621594</v>
+      </c>
+      <c r="E222">
+        <v>0.8053808320546523</v>
+      </c>
+      <c r="F222">
+        <v>1783</v>
+      </c>
+      <c r="G222">
+        <v>0.0615213968558237</v>
+      </c>
+      <c r="H222">
+        <v>0.5093023648951203</v>
+      </c>
+      <c r="I222">
+        <v>0.03722933668177575</v>
+      </c>
+      <c r="J222">
+        <v>0.1089558957610279</v>
+      </c>
+      <c r="K222">
+        <v>0.02174785337410867</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C223">
+        <v>211</v>
+      </c>
+      <c r="D223">
+        <v>0.01184479659423232</v>
+      </c>
+      <c r="E223">
+        <v>0.121050564921461</v>
+      </c>
+      <c r="F223">
+        <v>211</v>
+      </c>
+      <c r="G223">
+        <v>0.006928736111149192</v>
+      </c>
+      <c r="H223">
+        <v>0.07161611993797123</v>
+      </c>
+      <c r="I223">
+        <v>0.003800469916313887</v>
+      </c>
+      <c r="J223">
+        <v>0.02897877187933773</v>
+      </c>
+      <c r="K223">
+        <v>0.002438461175188422</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C224">
+        <v>211</v>
+      </c>
+      <c r="D224">
+        <v>0.01189666369464248</v>
+      </c>
+      <c r="E224">
+        <v>0.1217252269852906</v>
+      </c>
+      <c r="F224">
+        <v>211</v>
+      </c>
+      <c r="G224">
+        <v>0.006842282833531499</v>
+      </c>
+      <c r="H224">
+        <v>0.07217580371070653</v>
+      </c>
+      <c r="I224">
+        <v>0.003894288442097604</v>
+      </c>
+      <c r="J224">
+        <v>0.02904237783513963</v>
+      </c>
+      <c r="K224">
+        <v>0.00245820393320173</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C225">
+        <v>1783</v>
+      </c>
+      <c r="D225">
+        <v>0.00312924908939749</v>
+      </c>
+      <c r="E225">
+        <v>0.7546514270361513</v>
+      </c>
+      <c r="F225">
+        <v>1783</v>
+      </c>
+      <c r="G225">
+        <v>0.05707578011788428</v>
+      </c>
+      <c r="H225">
+        <v>0.4735102171543986</v>
+      </c>
+      <c r="I225">
+        <v>0.04014432348776609</v>
+      </c>
+      <c r="J225">
+        <v>0.1019285200163722</v>
+      </c>
+      <c r="K225">
+        <v>0.02016751654446125</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C226">
+        <v>33813</v>
+      </c>
+      <c r="E226">
+        <v>6.469233011128381</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11">
+      <c r="A227" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C227">
+        <v>1654</v>
+      </c>
+      <c r="D227">
+        <v>0.001915142289362848</v>
+      </c>
+      <c r="E227">
+        <v>0.6989620870444924</v>
+      </c>
+      <c r="F227">
+        <v>1654</v>
+      </c>
+      <c r="G227">
+        <v>0.05377384682651609</v>
+      </c>
+      <c r="H227">
+        <v>0.4437996232882142</v>
+      </c>
+      <c r="I227">
+        <v>0.03071877337060869</v>
+      </c>
+      <c r="J227">
+        <v>0.09356142510659993</v>
+      </c>
+      <c r="K227">
+        <v>0.01881989859975874</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C228">
+        <v>191</v>
+      </c>
+      <c r="D228">
+        <v>0.01119083270896226</v>
+      </c>
+      <c r="E228">
+        <v>0.1119892980204895</v>
+      </c>
+      <c r="F228">
+        <v>191</v>
+      </c>
+      <c r="G228">
+        <v>0.006409175926819444</v>
+      </c>
+      <c r="H228">
+        <v>0.06614683044608682</v>
+      </c>
+      <c r="I228">
+        <v>0.003605520119890571</v>
+      </c>
+      <c r="J228">
+        <v>0.0268595238449052</v>
+      </c>
+      <c r="K228">
+        <v>0.002252049394883215</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C229">
+        <v>186</v>
+      </c>
+      <c r="D229">
+        <v>0.01153199130203575</v>
+      </c>
+      <c r="E229">
+        <v>0.1132058739895001</v>
+      </c>
+      <c r="F229">
+        <v>186</v>
+      </c>
+      <c r="G229">
+        <v>0.006775198504328728</v>
+      </c>
+      <c r="H229">
+        <v>0.06715022306889296</v>
+      </c>
+      <c r="I229">
+        <v>0.003554168506525457</v>
+      </c>
+      <c r="J229">
+        <v>0.02650314825586975</v>
+      </c>
+      <c r="K229">
+        <v>0.002297768951393664</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C230">
+        <v>1654</v>
+      </c>
+      <c r="D230">
+        <v>0.002953947405330837</v>
+      </c>
+      <c r="E230">
+        <v>0.7338318719994277</v>
+      </c>
+      <c r="F230">
+        <v>1654</v>
+      </c>
+      <c r="G230">
+        <v>0.05680189398117363</v>
+      </c>
+      <c r="H230">
+        <v>0.4609800296602771</v>
+      </c>
+      <c r="I230">
+        <v>0.03664585936348885</v>
+      </c>
+      <c r="J230">
+        <v>0.09695552010089159</v>
+      </c>
+      <c r="K230">
+        <v>0.02006401831749827</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C231">
+        <v>33813</v>
+      </c>
+      <c r="E231">
+        <v>6.448815861949697</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11">
+      <c r="A232" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C232">
+        <v>2095</v>
+      </c>
+      <c r="D232">
+        <v>0.002406278974376619</v>
+      </c>
+      <c r="E232">
+        <v>0.8847145040053874</v>
+      </c>
+      <c r="F232">
+        <v>2095</v>
+      </c>
+      <c r="G232">
+        <v>0.0702416009735316</v>
+      </c>
+      <c r="H232">
+        <v>0.5659869171213359</v>
+      </c>
+      <c r="I232">
+        <v>0.03156209771987051</v>
+      </c>
+      <c r="J232">
+        <v>0.1154822275275365</v>
+      </c>
+      <c r="K232">
+        <v>0.02456637448631227</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C233">
+        <v>145</v>
+      </c>
+      <c r="D233">
+        <v>0.0102531163720414</v>
+      </c>
+      <c r="E233">
+        <v>0.1012983159162104</v>
+      </c>
+      <c r="F233">
+        <v>145</v>
+      </c>
+      <c r="G233">
+        <v>0.005463192006573081</v>
+      </c>
+      <c r="H233">
+        <v>0.05710014177020639</v>
+      </c>
+      <c r="I233">
+        <v>0.003261787700466812</v>
+      </c>
+      <c r="J233">
+        <v>0.02781358431093395</v>
+      </c>
+      <c r="K233">
+        <v>0.001887142076157033</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C234">
+        <v>149</v>
+      </c>
+      <c r="D234">
+        <v>0.009802155313082039</v>
+      </c>
+      <c r="E234">
+        <v>0.09759780892636627</v>
+      </c>
+      <c r="F234">
+        <v>149</v>
+      </c>
+      <c r="G234">
+        <v>0.00534049398265779</v>
+      </c>
+      <c r="H234">
+        <v>0.05417917657177895</v>
+      </c>
+      <c r="I234">
+        <v>0.003260591765865684</v>
+      </c>
+      <c r="J234">
+        <v>0.02753211837261915</v>
+      </c>
+      <c r="K234">
+        <v>0.001809027860872447</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C235">
+        <v>2095</v>
+      </c>
+      <c r="D235">
+        <v>0.003540839767083526</v>
+      </c>
+      <c r="E235">
+        <v>0.9182631260482594</v>
+      </c>
+      <c r="F235">
+        <v>2095</v>
+      </c>
+      <c r="G235">
+        <v>0.0708365241298452</v>
+      </c>
+      <c r="H235">
+        <v>0.5942633226513863</v>
+      </c>
+      <c r="I235">
+        <v>0.03677194868214428</v>
+      </c>
+      <c r="J235">
+        <v>0.1146715141367167</v>
+      </c>
+      <c r="K235">
+        <v>0.02499270730186254</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11">
+      <c r="A236" s="1"/>
+      <c r="B236" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C236">
+        <v>33813</v>
+      </c>
+      <c r="E236">
+        <v>6.337131463224068</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11">
+      <c r="A237" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C237">
+        <v>1530</v>
+      </c>
+      <c r="D237">
+        <v>0.001815620344132185</v>
+      </c>
+      <c r="E237">
+        <v>0.651675118948333</v>
+      </c>
+      <c r="F237">
+        <v>1530</v>
+      </c>
+      <c r="G237">
+        <v>0.05048418894875795</v>
+      </c>
+      <c r="H237">
+        <v>0.4106441220501438</v>
+      </c>
+      <c r="I237">
+        <v>0.0291716723004356</v>
+      </c>
+      <c r="J237">
+        <v>0.08876097446773201</v>
+      </c>
+      <c r="K237">
+        <v>0.01768751989584416</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C238">
+        <v>154</v>
+      </c>
+      <c r="D238">
+        <v>0.01133616920560598</v>
+      </c>
+      <c r="E238">
+        <v>0.1128988449927419</v>
+      </c>
+      <c r="F238">
+        <v>154</v>
+      </c>
+      <c r="G238">
+        <v>0.006288459640927613</v>
+      </c>
+      <c r="H238">
+        <v>0.06450261687859893</v>
+      </c>
+      <c r="I238">
+        <v>0.003582752426154912</v>
+      </c>
+      <c r="J238">
+        <v>0.02987641165964305</v>
+      </c>
+      <c r="K238">
+        <v>0.002197546302340925</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11">
+      <c r="A239" s="1"/>
+      <c r="B239" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C239">
+        <v>154</v>
+      </c>
+      <c r="D239">
+        <v>0.01202273636590689</v>
+      </c>
+      <c r="E239">
+        <v>0.1128950520651415</v>
+      </c>
+      <c r="F239">
+        <v>154</v>
+      </c>
+      <c r="G239">
+        <v>0.006203443743288517</v>
+      </c>
+      <c r="H239">
+        <v>0.06562974967528135</v>
+      </c>
+      <c r="I239">
+        <v>0.003726197057403624</v>
+      </c>
+      <c r="J239">
+        <v>0.02855797181837261</v>
+      </c>
+      <c r="K239">
+        <v>0.002138168551027775</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C240">
+        <v>1530</v>
+      </c>
+      <c r="D240">
+        <v>0.002761795883998275</v>
+      </c>
+      <c r="E240">
+        <v>0.663994095986709</v>
+      </c>
+      <c r="F240">
+        <v>1530</v>
+      </c>
+      <c r="G240">
+        <v>0.05112192791420966</v>
+      </c>
+      <c r="H240">
+        <v>0.41405932942871</v>
+      </c>
+      <c r="I240">
+        <v>0.03442377026658505</v>
+      </c>
+      <c r="J240">
+        <v>0.09046534448862076</v>
+      </c>
+      <c r="K240">
+        <v>0.01801749842707068</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11">
+      <c r="A241" s="1"/>
+      <c r="B241" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C241">
+        <v>33813</v>
+      </c>
+      <c r="E241">
+        <v>6.306667138822377</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11">
+      <c r="A242" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C242">
+        <v>1896</v>
+      </c>
+      <c r="D242">
+        <v>0.002184968325309455</v>
+      </c>
+      <c r="E242">
+        <v>0.7918292899848893</v>
+      </c>
+      <c r="F242">
+        <v>1896</v>
+      </c>
+      <c r="G242">
+        <v>0.06192178837954998</v>
+      </c>
+      <c r="H242">
+        <v>0.5033453099895269</v>
+      </c>
+      <c r="I242">
+        <v>0.03285176167264581</v>
+      </c>
+      <c r="J242">
+        <v>0.1035954136168584</v>
+      </c>
+      <c r="K242">
+        <v>0.02191160526126623</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11">
+      <c r="A243" s="1"/>
+      <c r="B243" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C243">
+        <v>214</v>
+      </c>
+      <c r="D243">
+        <v>0.01221948291640729</v>
+      </c>
+      <c r="E243">
+        <v>0.1233302230248228</v>
+      </c>
+      <c r="F243">
+        <v>214</v>
+      </c>
+      <c r="G243">
+        <v>0.007593284011818469</v>
+      </c>
+      <c r="H243">
+        <v>0.07340813241899014</v>
+      </c>
+      <c r="I243">
+        <v>0.003828415996395051</v>
+      </c>
+      <c r="J243">
+        <v>0.02802437439095229</v>
+      </c>
+      <c r="K243">
+        <v>0.002489866456016898</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11">
+      <c r="A244" s="1"/>
+      <c r="B244" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C244">
+        <v>215</v>
+      </c>
+      <c r="D244">
+        <v>0.01294646982569247</v>
+      </c>
+      <c r="E244">
+        <v>0.1226731539936736</v>
+      </c>
+      <c r="F244">
+        <v>215</v>
+      </c>
+      <c r="G244">
+        <v>0.007218866958282888</v>
+      </c>
+      <c r="H244">
+        <v>0.07375788176432252</v>
+      </c>
+      <c r="I244">
+        <v>0.003836357733234763</v>
+      </c>
+      <c r="J244">
+        <v>0.02781341189984232</v>
+      </c>
+      <c r="K244">
+        <v>0.00243048497941345</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11">
+      <c r="A245" s="1"/>
+      <c r="B245" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C245">
+        <v>1896</v>
+      </c>
+      <c r="D245">
+        <v>0.003308080253191292</v>
+      </c>
+      <c r="E245">
+        <v>0.8069259870098904</v>
+      </c>
+      <c r="F245">
+        <v>1896</v>
+      </c>
+      <c r="G245">
+        <v>0.06246597494464368</v>
+      </c>
+      <c r="H245">
+        <v>0.510841625276953</v>
+      </c>
+      <c r="I245">
+        <v>0.03808213188312948</v>
+      </c>
+      <c r="J245">
+        <v>0.10548661055509</v>
+      </c>
+      <c r="K245">
+        <v>0.02234985935501754</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11">
+      <c r="A246" s="1"/>
+      <c r="B246" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C246">
+        <v>33813</v>
+      </c>
+      <c r="E246">
+        <v>7.785795014933683</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11">
+      <c r="A247" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C247">
+        <v>1906</v>
+      </c>
+      <c r="D247">
+        <v>0.002264768350869417</v>
+      </c>
+      <c r="E247">
+        <v>0.8144697089446709</v>
+      </c>
+      <c r="F247">
+        <v>1906</v>
+      </c>
+      <c r="G247">
+        <v>0.06357277801726013</v>
+      </c>
+      <c r="H247">
+        <v>0.5160703758010641</v>
+      </c>
+      <c r="I247">
+        <v>0.0349194387672469</v>
+      </c>
+      <c r="J247">
+        <v>0.1089348546229303</v>
+      </c>
+      <c r="K247">
+        <v>0.02231493731960654</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11">
+      <c r="A248" s="1"/>
+      <c r="B248" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C248">
+        <v>215</v>
+      </c>
+      <c r="D248">
+        <v>0.01176413288339972</v>
+      </c>
+      <c r="E248">
+        <v>0.1222956699784845</v>
+      </c>
+      <c r="F248">
+        <v>215</v>
+      </c>
+      <c r="G248">
+        <v>0.007110750419087708</v>
+      </c>
+      <c r="H248">
+        <v>0.07275023101828992</v>
+      </c>
+      <c r="I248">
+        <v>0.003704162081703544</v>
+      </c>
+      <c r="J248">
+        <v>0.02861253987066448</v>
+      </c>
+      <c r="K248">
+        <v>0.002580524305813015</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11">
+      <c r="A249" s="1"/>
+      <c r="B249" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C249">
+        <v>206</v>
+      </c>
+      <c r="D249">
+        <v>0.01235142222139984</v>
+      </c>
+      <c r="E249">
+        <v>0.1507587400265038</v>
+      </c>
+      <c r="F249">
+        <v>206</v>
+      </c>
+      <c r="G249">
+        <v>0.00722158735152334</v>
+      </c>
+      <c r="H249">
+        <v>0.07462715986184776</v>
+      </c>
+      <c r="I249">
+        <v>0.003891725791618228</v>
+      </c>
+      <c r="J249">
+        <v>0.05498922453261912</v>
+      </c>
+      <c r="K249">
+        <v>0.002476072870194912</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11">
+      <c r="A250" s="1"/>
+      <c r="B250" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C250">
+        <v>1906</v>
+      </c>
+      <c r="D250">
+        <v>0.003306423197500408</v>
+      </c>
+      <c r="E250">
+        <v>0.8210042619612068</v>
+      </c>
+      <c r="F250">
+        <v>1906</v>
+      </c>
+      <c r="G250">
+        <v>0.06328398163896054</v>
+      </c>
+      <c r="H250">
+        <v>0.5192162870662287</v>
+      </c>
+      <c r="I250">
+        <v>0.0403477530926466</v>
+      </c>
+      <c r="J250">
+        <v>0.1072896351106465</v>
+      </c>
+      <c r="K250">
+        <v>0.02247919130604714</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11">
+      <c r="A251" s="1"/>
+      <c r="B251" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C251">
+        <v>33813</v>
+      </c>
+      <c r="E251">
+        <v>6.760283408802934</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11">
+      <c r="A252" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C252">
+        <v>1857.22</v>
+      </c>
+      <c r="D252">
+        <v>0.002206107799429446</v>
+      </c>
+      <c r="E252">
+        <v>0.7999076315737329</v>
+      </c>
+      <c r="F252">
+        <v>1857.22</v>
+      </c>
+      <c r="G252">
+        <v>0.06176604476291686</v>
+      </c>
+      <c r="H252">
+        <v>0.507482712334022</v>
+      </c>
+      <c r="I252">
+        <v>0.03338159941602498</v>
+      </c>
+      <c r="J252">
+        <v>0.1085321344481781</v>
+      </c>
+      <c r="K252">
+        <v>0.02177924873074517</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11">
+      <c r="A253" s="1"/>
+      <c r="B253" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C253">
+        <v>192.7</v>
+      </c>
+      <c r="D253">
+        <v>0.01194527389714494</v>
+      </c>
+      <c r="E253">
+        <v>0.1174257074785419</v>
+      </c>
+      <c r="F253">
+        <v>192.7</v>
+      </c>
+      <c r="G253">
+        <v>0.006681185781490058</v>
+      </c>
+      <c r="H253">
+        <v>0.06893166801193729</v>
+      </c>
+      <c r="I253">
+        <v>0.003658714313060045</v>
+      </c>
+      <c r="J253">
+        <v>0.02883311460725963</v>
+      </c>
+      <c r="K253">
+        <v>0.002340879279654473</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11">
+      <c r="A254" s="1"/>
+      <c r="B254" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C254">
+        <v>191.9</v>
+      </c>
+      <c r="D254">
+        <v>0.01224679136183113</v>
+      </c>
+      <c r="E254">
+        <v>0.1180369237600826</v>
+      </c>
+      <c r="F254">
+        <v>191.9</v>
+      </c>
+      <c r="G254">
+        <v>0.006672674615401775</v>
+      </c>
+      <c r="H254">
+        <v>0.06940395674202592</v>
+      </c>
+      <c r="I254">
+        <v>0.003696150428149849</v>
+      </c>
+      <c r="J254">
+        <v>0.0289517974993214</v>
+      </c>
+      <c r="K254">
+        <v>0.002320782046299428</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11">
+      <c r="A255" s="1"/>
+      <c r="B255" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C255">
+        <v>1857.22</v>
+      </c>
+      <c r="D255">
+        <v>0.003240622482262552</v>
+      </c>
+      <c r="E255">
+        <v>0.8088385910307988</v>
+      </c>
+      <c r="F255">
+        <v>1857.22</v>
+      </c>
+      <c r="G255">
+        <v>0.06231726357247681</v>
+      </c>
+      <c r="H255">
+        <v>0.50905012719566</v>
+      </c>
+      <c r="I255">
+        <v>0.03901731873163954</v>
+      </c>
+      <c r="J255">
+        <v>0.1090400322340429</v>
+      </c>
+      <c r="K255">
+        <v>0.02201206019381061</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11">
+      <c r="A256" s="1"/>
+      <c r="B256" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C256">
+        <v>33813</v>
+      </c>
+      <c r="E256">
+        <v>6.622309662785847</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="51">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A16"/>
@@ -2514,6 +9874,46 @@
     <mergeCell ref="A42:A46"/>
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="A157:A161"/>
+    <mergeCell ref="A162:A166"/>
+    <mergeCell ref="A167:A171"/>
+    <mergeCell ref="A172:A176"/>
+    <mergeCell ref="A177:A181"/>
+    <mergeCell ref="A182:A186"/>
+    <mergeCell ref="A187:A191"/>
+    <mergeCell ref="A192:A196"/>
+    <mergeCell ref="A197:A201"/>
+    <mergeCell ref="A202:A206"/>
+    <mergeCell ref="A207:A211"/>
+    <mergeCell ref="A212:A216"/>
+    <mergeCell ref="A217:A221"/>
+    <mergeCell ref="A222:A226"/>
+    <mergeCell ref="A227:A231"/>
+    <mergeCell ref="A232:A236"/>
+    <mergeCell ref="A237:A241"/>
+    <mergeCell ref="A242:A246"/>
+    <mergeCell ref="A247:A251"/>
+    <mergeCell ref="A252:A256"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/advanced/randomized_tests/squareprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/squareprocessed_rand_results_test.xlsx
@@ -626,28 +626,28 @@
         <v>2311</v>
       </c>
       <c r="D2">
-        <v>0.003515441436320543</v>
+        <v>0.00313084339722991</v>
       </c>
       <c r="E2">
-        <v>1.223200861015357</v>
+        <v>1.439415222033858</v>
       </c>
       <c r="F2">
         <v>2311</v>
       </c>
       <c r="G2">
-        <v>0.0911298505961895</v>
+        <v>0.09222432691603899</v>
       </c>
       <c r="H2">
-        <v>0.6935708560049534</v>
+        <v>0.7298780623823404</v>
       </c>
       <c r="I2">
-        <v>0.1060966667719185</v>
+        <v>0.2350507462397218</v>
       </c>
       <c r="J2">
-        <v>0.2123468661447987</v>
+        <v>0.2684049438685179</v>
       </c>
       <c r="K2">
-        <v>0.02939116454217583</v>
+        <v>0.02796277310699224</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -659,28 +659,28 @@
         <v>200</v>
       </c>
       <c r="D3">
-        <v>0.09083646966610104</v>
+        <v>0.06545410817489028</v>
       </c>
       <c r="E3">
-        <v>0.4230808599386364</v>
+        <v>0.3947789939120412</v>
       </c>
       <c r="F3">
         <v>200</v>
       </c>
       <c r="G3">
-        <v>0.01245951978489757</v>
+        <v>0.0104007925838232</v>
       </c>
       <c r="H3">
-        <v>0.1771290010074154</v>
+        <v>0.1424757433123887</v>
       </c>
       <c r="I3">
-        <v>0.02462157013360411</v>
+        <v>0.02403827849775553</v>
       </c>
       <c r="J3">
-        <v>0.19603792054113</v>
+        <v>0.2072149789892137</v>
       </c>
       <c r="K3">
-        <v>0.003224352258257568</v>
+        <v>0.002761213108897209</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -692,28 +692,28 @@
         <v>200</v>
       </c>
       <c r="D4">
-        <v>0.07146704976912588</v>
+        <v>0.06641591154038906</v>
       </c>
       <c r="E4">
-        <v>0.3760545969707891</v>
+        <v>0.3943201447837055</v>
       </c>
       <c r="F4">
         <v>200</v>
       </c>
       <c r="G4">
-        <v>0.01056974765378982</v>
+        <v>0.0105892731808126</v>
       </c>
       <c r="H4">
-        <v>0.1498800251865759</v>
+        <v>0.1423162538558245</v>
       </c>
       <c r="I4">
-        <v>0.01921978173777461</v>
+        <v>0.02404126944020391</v>
       </c>
       <c r="J4">
-        <v>0.1853455089731142</v>
+        <v>0.2065588254481554</v>
       </c>
       <c r="K4">
-        <v>0.002769239712506533</v>
+        <v>0.002788963727653027</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -725,28 +725,28 @@
         <v>2311</v>
       </c>
       <c r="D5">
-        <v>0.004729409934952855</v>
+        <v>0.004563175607472658</v>
       </c>
       <c r="E5">
-        <v>1.143365467898548</v>
+        <v>1.440237573347986</v>
       </c>
       <c r="F5">
         <v>2311</v>
       </c>
       <c r="G5">
-        <v>0.08384771109558642</v>
+        <v>0.09064242616295815</v>
       </c>
       <c r="H5">
-        <v>0.6475197421386838</v>
+        <v>0.72658471763134</v>
       </c>
       <c r="I5">
-        <v>0.105703016393818</v>
+        <v>0.2432540557347238</v>
       </c>
       <c r="J5">
-        <v>0.1973964378703386</v>
+        <v>0.2673658370040357</v>
       </c>
       <c r="K5">
-        <v>0.02685872034635395</v>
+        <v>0.02728631859645247</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -758,28 +758,28 @@
         <v>281</v>
       </c>
       <c r="D6">
-        <v>0.05609648826066405</v>
+        <v>0.06115334015339613</v>
       </c>
       <c r="E6">
-        <v>0.4339442610507831</v>
+        <v>0.5087484568357468</v>
       </c>
       <c r="F6">
         <v>281</v>
       </c>
       <c r="G6">
-        <v>0.01122019719332457</v>
+        <v>0.01396965002641082</v>
       </c>
       <c r="H6">
-        <v>0.1458584220381454</v>
+        <v>0.1617975165136158</v>
       </c>
       <c r="I6">
-        <v>0.04856585944071412</v>
+        <v>0.1007672557607293</v>
       </c>
       <c r="J6">
-        <v>0.2141460890416056</v>
+        <v>0.2169510298408568</v>
       </c>
       <c r="K6">
-        <v>0.004005843191407621</v>
+        <v>0.004315282683819532</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -791,7 +791,7 @@
         <v>130050</v>
       </c>
       <c r="E7">
-        <v>26.2793457423104</v>
+        <v>26.88509621098638</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -805,28 +805,28 @@
         <v>1934</v>
       </c>
       <c r="D8">
-        <v>0.0027020851848647</v>
+        <v>0.002693851012736559</v>
       </c>
       <c r="E8">
-        <v>0.9791154320118949</v>
+        <v>1.247489012777805</v>
       </c>
       <c r="F8">
         <v>1934</v>
       </c>
       <c r="G8">
-        <v>0.0695487818447873</v>
+        <v>0.07787654967978597</v>
       </c>
       <c r="H8">
-        <v>0.545821932493709</v>
+        <v>0.6121293497271836</v>
       </c>
       <c r="I8">
-        <v>0.08351335453335196</v>
+        <v>0.2155747562646866</v>
       </c>
       <c r="J8">
-        <v>0.1867137559456751</v>
+        <v>0.2461630539037287</v>
       </c>
       <c r="K8">
-        <v>0.02331983007024974</v>
+        <v>0.02345868293195963</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -838,28 +838,28 @@
         <v>260</v>
       </c>
       <c r="D9">
-        <v>0.05775633140001446</v>
+        <v>0.06393868941813707</v>
       </c>
       <c r="E9">
-        <v>0.4062474149977788</v>
+        <v>0.4722560863010585</v>
       </c>
       <c r="F9">
         <v>260</v>
       </c>
       <c r="G9">
-        <v>0.01016967429313809</v>
+        <v>0.0120175639167428</v>
       </c>
       <c r="H9">
-        <v>0.1400128522654995</v>
+        <v>0.1602854132652283</v>
       </c>
       <c r="I9">
-        <v>0.01546551729552448</v>
+        <v>0.02254338981583714</v>
       </c>
       <c r="J9">
-        <v>0.2277038209140301</v>
+        <v>0.2635422684252262</v>
       </c>
       <c r="K9">
-        <v>0.003242007223889232</v>
+        <v>0.003504962660372257</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -871,28 +871,28 @@
         <v>260</v>
       </c>
       <c r="D10">
-        <v>0.06077961449045688</v>
+        <v>0.06312387529760599</v>
       </c>
       <c r="E10">
-        <v>0.3765732520259917</v>
+        <v>0.4153491077013314</v>
       </c>
       <c r="F10">
         <v>260</v>
       </c>
       <c r="G10">
-        <v>0.0104771574260667</v>
+        <v>0.01154327439144254</v>
       </c>
       <c r="H10">
-        <v>0.1434828370111063</v>
+        <v>0.1537308827973902</v>
       </c>
       <c r="I10">
-        <v>0.01650695852003992</v>
+        <v>0.02199699822813272</v>
       </c>
       <c r="J10">
-        <v>0.1931204311549664</v>
+        <v>0.2147464766167104</v>
       </c>
       <c r="K10">
-        <v>0.003322806558571756</v>
+        <v>0.003328687977045774</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -904,28 +904,28 @@
         <v>1934</v>
       </c>
       <c r="D11">
-        <v>0.00371453061234206</v>
+        <v>0.00381794385612011</v>
       </c>
       <c r="E11">
-        <v>0.9144894060445949</v>
+        <v>1.27689443808049</v>
       </c>
       <c r="F11">
         <v>1934</v>
       </c>
       <c r="G11">
-        <v>0.06401053129229695</v>
+        <v>0.07650809921324253</v>
       </c>
       <c r="H11">
-        <v>0.5022066412493587</v>
+        <v>0.6029225932434201</v>
       </c>
       <c r="I11">
-        <v>0.0901561442296952</v>
+        <v>0.2206326364539564</v>
       </c>
       <c r="J11">
-        <v>0.1720557369990274</v>
+        <v>0.2818358112126589</v>
       </c>
       <c r="K11">
-        <v>0.02125854417681694</v>
+        <v>0.0234526083804667</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -937,28 +937,28 @@
         <v>321</v>
       </c>
       <c r="D12">
-        <v>0.06768761796411127</v>
+        <v>0.07000776287168264</v>
       </c>
       <c r="E12">
-        <v>0.4788252529688179</v>
+        <v>0.5625158869661391</v>
       </c>
       <c r="F12">
         <v>321</v>
       </c>
       <c r="G12">
-        <v>0.01308885659091175</v>
+        <v>0.01577644562348723</v>
       </c>
       <c r="H12">
-        <v>0.1691348121967167</v>
+        <v>0.182832152582705</v>
       </c>
       <c r="I12">
-        <v>0.05364431708585471</v>
+        <v>0.1092394990846515</v>
       </c>
       <c r="J12">
-        <v>0.2257796527119353</v>
+        <v>0.2370333350263536</v>
       </c>
       <c r="K12">
-        <v>0.004965242464095354</v>
+        <v>0.004977410659193993</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -970,7 +970,7 @@
         <v>130050</v>
       </c>
       <c r="E13">
-        <v>25.59851382335182</v>
+        <v>26.13077858230099</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -984,28 +984,28 @@
         <v>2122.5</v>
       </c>
       <c r="D14">
-        <v>0.003108763310592622</v>
+        <v>0.002912347204983234</v>
       </c>
       <c r="E14">
-        <v>1.101158146513626</v>
+        <v>1.343452117405832</v>
       </c>
       <c r="F14">
         <v>2122.5</v>
       </c>
       <c r="G14">
-        <v>0.0803393162204884</v>
+        <v>0.08505043829791248</v>
       </c>
       <c r="H14">
-        <v>0.6196963942493312</v>
+        <v>0.671003706054762</v>
       </c>
       <c r="I14">
-        <v>0.09480501065263525</v>
+        <v>0.2253127512522042</v>
       </c>
       <c r="J14">
-        <v>0.1995303110452369</v>
+        <v>0.2572839988861233</v>
       </c>
       <c r="K14">
-        <v>0.02635549730621278</v>
+        <v>0.02571072801947594</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1017,28 +1017,28 @@
         <v>230</v>
       </c>
       <c r="D15">
-        <v>0.07429640053305775</v>
+        <v>0.06469639879651368</v>
       </c>
       <c r="E15">
-        <v>0.4146641374682076</v>
+        <v>0.4335175401065499</v>
       </c>
       <c r="F15">
         <v>230</v>
       </c>
       <c r="G15">
-        <v>0.01131459703901783</v>
+        <v>0.011209178250283</v>
       </c>
       <c r="H15">
-        <v>0.1585709266364574</v>
+        <v>0.1513805782888085</v>
       </c>
       <c r="I15">
-        <v>0.02004354371456429</v>
+        <v>0.02329083415679634</v>
       </c>
       <c r="J15">
-        <v>0.21187087072758</v>
+        <v>0.23537862370722</v>
       </c>
       <c r="K15">
-        <v>0.0032331797410734</v>
+        <v>0.003133087884634733</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1050,28 +1050,28 @@
         <v>230</v>
       </c>
       <c r="D16">
-        <v>0.06612333212979138</v>
+        <v>0.06476989341899753</v>
       </c>
       <c r="E16">
-        <v>0.3763139244983904</v>
+        <v>0.4048346262425184</v>
       </c>
       <c r="F16">
         <v>230</v>
       </c>
       <c r="G16">
-        <v>0.01052345253992826</v>
+        <v>0.01106627378612757</v>
       </c>
       <c r="H16">
-        <v>0.1466814310988411</v>
+        <v>0.1480235683266073</v>
       </c>
       <c r="I16">
-        <v>0.01786337012890726</v>
+        <v>0.02301913383416831</v>
       </c>
       <c r="J16">
-        <v>0.1892329700640403</v>
+        <v>0.2106526510324329</v>
       </c>
       <c r="K16">
-        <v>0.003046023135539144</v>
+        <v>0.003058825852349401</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1083,28 +1083,28 @@
         <v>2122.5</v>
       </c>
       <c r="D17">
-        <v>0.004221970273647457</v>
+        <v>0.004190559731796384</v>
       </c>
       <c r="E17">
-        <v>1.028927436971571</v>
+        <v>1.358566005714238</v>
       </c>
       <c r="F17">
         <v>2122.5</v>
       </c>
       <c r="G17">
-        <v>0.07392912119394168</v>
+        <v>0.08357526268810034</v>
       </c>
       <c r="H17">
-        <v>0.5748631916940212</v>
+        <v>0.6647536554373801</v>
       </c>
       <c r="I17">
-        <v>0.09792958031175658</v>
+        <v>0.2319433460943401</v>
       </c>
       <c r="J17">
-        <v>0.184726087434683</v>
+        <v>0.2746008241083473</v>
       </c>
       <c r="K17">
-        <v>0.02405863226158544</v>
+        <v>0.02536946348845959</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1116,28 +1116,28 @@
         <v>301</v>
       </c>
       <c r="D18">
-        <v>0.06189205311238766</v>
+        <v>0.06558055151253939</v>
       </c>
       <c r="E18">
-        <v>0.4563847570098005</v>
+        <v>0.5356321719009429</v>
       </c>
       <c r="F18">
         <v>301</v>
       </c>
       <c r="G18">
-        <v>0.01215452689211816</v>
+        <v>0.01487304782494903</v>
       </c>
       <c r="H18">
-        <v>0.157496617117431</v>
+        <v>0.1723148345481604</v>
       </c>
       <c r="I18">
-        <v>0.05110508826328442</v>
+        <v>0.1050033774226904</v>
       </c>
       <c r="J18">
-        <v>0.2199628708767705</v>
+        <v>0.2269921824336052</v>
       </c>
       <c r="K18">
-        <v>0.004485542827751487</v>
+        <v>0.004646346671506763</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1149,7 +1149,7 @@
         <v>130050</v>
       </c>
       <c r="E19">
-        <v>25.93892978283111</v>
+        <v>26.50793739664368</v>
       </c>
     </row>
   </sheetData>

--- a/tests/advanced/randomized_tests/squareprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/squareprocessed_rand_results_test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
@@ -32,7 +32,16 @@
     <t>S*-MM0</t>
   </si>
   <si>
-    <t>S*-unmerged</t>
+    <t>S*-BS-UN</t>
+  </si>
+  <si>
+    <t>S*-HS-UN</t>
+  </si>
+  <si>
+    <t>S*-MM-UN</t>
+  </si>
+  <si>
+    <t>S*-MM0-UN</t>
   </si>
   <si>
     <t>var</t>
@@ -50,7 +59,16 @@
     <t>S*-MM0ND</t>
   </si>
   <si>
-    <t>S*-unmergedND</t>
+    <t>S*-BS-UNND</t>
+  </si>
+  <si>
+    <t>S*-HS-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM0-UNND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -81,9 +99,6 @@
   </si>
   <si>
     <t>run 0</t>
-  </si>
-  <si>
-    <t>run 1</t>
   </si>
   <si>
     <t>Average</t>
@@ -447,13 +462,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,8 +505,26 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -514,15 +547,15 @@
         <v>235.948</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
+        <v>235.948</v>
+      </c>
+      <c r="I2">
+        <v>235.948</v>
+      </c>
+      <c r="J2">
+        <v>235.948</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
       <c r="L2" t="b">
@@ -531,45 +564,22 @@
       <c r="M2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>239.91</v>
-      </c>
-      <c r="C3">
-        <v>239.91</v>
-      </c>
-      <c r="D3">
-        <v>239.91</v>
-      </c>
-      <c r="E3">
-        <v>239.91</v>
-      </c>
-      <c r="F3">
-        <v>239.91</v>
-      </c>
-      <c r="G3">
-        <v>239.91</v>
-      </c>
-      <c r="H3">
+      <c r="N2" t="b">
         <v>0</v>
       </c>
-      <c r="I3" t="b">
+      <c r="O2" t="b">
         <v>0</v>
       </c>
-      <c r="J3" t="b">
+      <c r="P2" t="b">
         <v>0</v>
       </c>
-      <c r="K3" t="b">
+      <c r="Q2" t="b">
         <v>0</v>
       </c>
-      <c r="L3" t="b">
+      <c r="R2" t="b">
         <v>0</v>
       </c>
-      <c r="M3" t="b">
+      <c r="S2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -588,36 +598,36 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -626,28 +636,28 @@
         <v>2311</v>
       </c>
       <c r="D2">
-        <v>0.00313084339722991</v>
+        <v>0.008607150986790657</v>
       </c>
       <c r="E2">
-        <v>1.439415222033858</v>
+        <v>1.539728614035994</v>
       </c>
       <c r="F2">
         <v>2311</v>
       </c>
       <c r="G2">
-        <v>0.09222432691603899</v>
+        <v>0.1137645742855966</v>
       </c>
       <c r="H2">
-        <v>0.7298780623823404</v>
+        <v>0.8196155605837703</v>
       </c>
       <c r="I2">
-        <v>0.2350507462397218</v>
+        <v>0.2225381596945226</v>
       </c>
       <c r="J2">
-        <v>0.2684049438685179</v>
+        <v>0.1886864122934639</v>
       </c>
       <c r="K2">
-        <v>0.02796277310699224</v>
+        <v>0.06381496088579297</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -656,31 +666,31 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D3">
-        <v>0.06545410817489028</v>
+        <v>0.06840496277436614</v>
       </c>
       <c r="E3">
-        <v>0.3947789939120412</v>
+        <v>0.3802451440133154</v>
       </c>
       <c r="F3">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G3">
-        <v>0.0104007925838232</v>
+        <v>0.01267765555530787</v>
       </c>
       <c r="H3">
-        <v>0.1424757433123887</v>
+        <v>0.1476655737496912</v>
       </c>
       <c r="I3">
-        <v>0.02403827849775553</v>
+        <v>0.02608164353296161</v>
       </c>
       <c r="J3">
-        <v>0.2072149789892137</v>
+        <v>0.1793714333325624</v>
       </c>
       <c r="K3">
-        <v>0.002761213108897209</v>
+        <v>0.005740559659898281</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -692,28 +702,28 @@
         <v>200</v>
       </c>
       <c r="D4">
-        <v>0.06641591154038906</v>
+        <v>0.0696259499527514</v>
       </c>
       <c r="E4">
-        <v>0.3943201447837055</v>
+        <v>0.385690676048398</v>
       </c>
       <c r="F4">
         <v>200</v>
       </c>
       <c r="G4">
-        <v>0.0105892731808126</v>
+        <v>0.01329542975872755</v>
       </c>
       <c r="H4">
-        <v>0.1423162538558245</v>
+        <v>0.1490539168007672</v>
       </c>
       <c r="I4">
-        <v>0.02404126944020391</v>
+        <v>0.02665241761133075</v>
       </c>
       <c r="J4">
-        <v>0.2065588254481554</v>
+        <v>0.1822353764437139</v>
       </c>
       <c r="K4">
-        <v>0.002788963727653027</v>
+        <v>0.00590427964925766</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -725,28 +735,28 @@
         <v>2311</v>
       </c>
       <c r="D5">
-        <v>0.004563175607472658</v>
+        <v>0.005206332076340914</v>
       </c>
       <c r="E5">
-        <v>1.440237573347986</v>
+        <v>1.532047397922724</v>
       </c>
       <c r="F5">
         <v>2311</v>
       </c>
       <c r="G5">
-        <v>0.09064242616295815</v>
+        <v>0.1223452114500105</v>
       </c>
       <c r="H5">
-        <v>0.72658471763134</v>
+        <v>0.8079842966981232</v>
       </c>
       <c r="I5">
-        <v>0.2432540557347238</v>
+        <v>0.2403572155162692</v>
       </c>
       <c r="J5">
-        <v>0.2673658370040357</v>
+        <v>0.1812891610898077</v>
       </c>
       <c r="K5">
-        <v>0.02728631859645247</v>
+        <v>0.06906250538304448</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -755,408 +765,426 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>281</v>
+        <v>6972</v>
       </c>
       <c r="D6">
-        <v>0.06115334015339613</v>
+        <v>0.03161870874464512</v>
       </c>
       <c r="E6">
-        <v>0.5087484568357468</v>
+        <v>7.108471159823239</v>
       </c>
       <c r="F6">
-        <v>281</v>
+        <v>6972</v>
       </c>
       <c r="G6">
-        <v>0.01396965002641082</v>
+        <v>0.4078474072739482</v>
       </c>
       <c r="H6">
-        <v>0.1617975165136158</v>
+        <v>2.372747433371842</v>
       </c>
       <c r="I6">
-        <v>0.1007672557607293</v>
+        <v>3.505109652876854</v>
       </c>
       <c r="J6">
-        <v>0.2169510298408568</v>
+        <v>0.308590798638761</v>
       </c>
       <c r="K6">
-        <v>0.004315282683819532</v>
+        <v>0.2206450216472149</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>130050</v>
+        <v>288</v>
+      </c>
+      <c r="D7">
+        <v>0.05716359475627542</v>
       </c>
       <c r="E7">
-        <v>26.88509621098638</v>
+        <v>0.4295072588138282</v>
+      </c>
+      <c r="F7">
+        <v>288</v>
+      </c>
+      <c r="G7">
+        <v>0.01554133230820298</v>
+      </c>
+      <c r="H7">
+        <v>0.153966223821044</v>
+      </c>
+      <c r="I7">
+        <v>0.04673767928034067</v>
+      </c>
+      <c r="J7">
+        <v>0.1928111803717911</v>
+      </c>
+      <c r="K7">
+        <v>0.009489653632044792</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>1934</v>
+        <v>286</v>
       </c>
       <c r="D8">
-        <v>0.002693851012736559</v>
+        <v>0.06609423691406846</v>
       </c>
       <c r="E8">
-        <v>1.247489012777805</v>
+        <v>0.6148002496920526</v>
       </c>
       <c r="F8">
-        <v>1934</v>
+        <v>286</v>
       </c>
       <c r="G8">
-        <v>0.07787654967978597</v>
+        <v>0.05318870581686497</v>
       </c>
       <c r="H8">
-        <v>0.6121293497271836</v>
+        <v>0.2309463946148753</v>
       </c>
       <c r="I8">
-        <v>0.2155747562646866</v>
+        <v>0.05702997092157602</v>
       </c>
       <c r="J8">
-        <v>0.2461630539037287</v>
+        <v>0.2314445525407791</v>
       </c>
       <c r="K8">
-        <v>0.02345868293195963</v>
+        <v>0.01239546062424779</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>260</v>
+        <v>6972</v>
       </c>
       <c r="D9">
-        <v>0.06393868941813707</v>
+        <v>0.03810702264308929</v>
       </c>
       <c r="E9">
-        <v>0.4722560863010585</v>
+        <v>7.233256386592984</v>
       </c>
       <c r="F9">
-        <v>260</v>
+        <v>6972</v>
       </c>
       <c r="G9">
-        <v>0.0120175639167428</v>
+        <v>0.3892864249646664</v>
       </c>
       <c r="H9">
-        <v>0.1602854132652283</v>
+        <v>2.43143223458901</v>
       </c>
       <c r="I9">
-        <v>0.02254338981583714</v>
+        <v>3.654112429358065</v>
       </c>
       <c r="J9">
-        <v>0.2635422684252262</v>
+        <v>0.2271735081449151</v>
       </c>
       <c r="K9">
-        <v>0.003504962660372257</v>
+        <v>0.2287985528819263</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C10">
-        <v>260</v>
-      </c>
-      <c r="D10">
-        <v>0.06312387529760599</v>
+        <v>130050</v>
       </c>
       <c r="E10">
-        <v>0.4153491077013314</v>
-      </c>
-      <c r="F10">
-        <v>260</v>
-      </c>
-      <c r="G10">
-        <v>0.01154327439144254</v>
-      </c>
-      <c r="H10">
-        <v>0.1537308827973902</v>
-      </c>
-      <c r="I10">
-        <v>0.02199699822813272</v>
-      </c>
-      <c r="J10">
-        <v>0.2147464766167104</v>
-      </c>
-      <c r="K10">
-        <v>0.003328687977045774</v>
+        <v>26.01207530265674</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>1934</v>
+        <v>2311</v>
       </c>
       <c r="D11">
-        <v>0.00381794385612011</v>
+        <v>0.008607150986790657</v>
       </c>
       <c r="E11">
-        <v>1.27689443808049</v>
+        <v>1.539728614035994</v>
       </c>
       <c r="F11">
-        <v>1934</v>
+        <v>2311</v>
       </c>
       <c r="G11">
-        <v>0.07650809921324253</v>
+        <v>0.1137645742855966</v>
       </c>
       <c r="H11">
-        <v>0.6029225932434201</v>
+        <v>0.8196155605837703</v>
       </c>
       <c r="I11">
-        <v>0.2206326364539564</v>
+        <v>0.2225381596945226</v>
       </c>
       <c r="J11">
-        <v>0.2818358112126589</v>
+        <v>0.1886864122934639</v>
       </c>
       <c r="K11">
-        <v>0.0234526083804667</v>
+        <v>0.06381496088579297</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>321</v>
+        <v>202</v>
       </c>
       <c r="D12">
-        <v>0.07000776287168264</v>
+        <v>0.06840496277436614</v>
       </c>
       <c r="E12">
-        <v>0.5625158869661391</v>
+        <v>0.3802451440133154</v>
       </c>
       <c r="F12">
-        <v>321</v>
+        <v>202</v>
       </c>
       <c r="G12">
-        <v>0.01577644562348723</v>
+        <v>0.01267765555530787</v>
       </c>
       <c r="H12">
-        <v>0.182832152582705</v>
+        <v>0.1476655737496912</v>
       </c>
       <c r="I12">
-        <v>0.1092394990846515</v>
+        <v>0.02608164353296161</v>
       </c>
       <c r="J12">
-        <v>0.2370333350263536</v>
+        <v>0.1793714333325624</v>
       </c>
       <c r="K12">
-        <v>0.004977410659193993</v>
+        <v>0.005740559659898281</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>130050</v>
+        <v>200</v>
+      </c>
+      <c r="D13">
+        <v>0.0696259499527514</v>
       </c>
       <c r="E13">
-        <v>26.13077858230099</v>
+        <v>0.385690676048398</v>
+      </c>
+      <c r="F13">
+        <v>200</v>
+      </c>
+      <c r="G13">
+        <v>0.01329542975872755</v>
+      </c>
+      <c r="H13">
+        <v>0.1490539168007672</v>
+      </c>
+      <c r="I13">
+        <v>0.02665241761133075</v>
+      </c>
+      <c r="J13">
+        <v>0.1822353764437139</v>
+      </c>
+      <c r="K13">
+        <v>0.00590427964925766</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>2122.5</v>
+        <v>2311</v>
       </c>
       <c r="D14">
-        <v>0.002912347204983234</v>
+        <v>0.005206332076340914</v>
       </c>
       <c r="E14">
-        <v>1.343452117405832</v>
+        <v>1.532047397922724</v>
       </c>
       <c r="F14">
-        <v>2122.5</v>
+        <v>2311</v>
       </c>
       <c r="G14">
-        <v>0.08505043829791248</v>
+        <v>0.1223452114500105</v>
       </c>
       <c r="H14">
-        <v>0.671003706054762</v>
+        <v>0.8079842966981232</v>
       </c>
       <c r="I14">
-        <v>0.2253127512522042</v>
+        <v>0.2403572155162692</v>
       </c>
       <c r="J14">
-        <v>0.2572839988861233</v>
+        <v>0.1812891610898077</v>
       </c>
       <c r="K14">
-        <v>0.02571072801947594</v>
+        <v>0.06906250538304448</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>230</v>
+        <v>6972</v>
       </c>
       <c r="D15">
-        <v>0.06469639879651368</v>
+        <v>0.03161870874464512</v>
       </c>
       <c r="E15">
-        <v>0.4335175401065499</v>
+        <v>7.108471159823239</v>
       </c>
       <c r="F15">
-        <v>230</v>
+        <v>6972</v>
       </c>
       <c r="G15">
-        <v>0.011209178250283</v>
+        <v>0.4078474072739482</v>
       </c>
       <c r="H15">
-        <v>0.1513805782888085</v>
+        <v>2.372747433371842</v>
       </c>
       <c r="I15">
-        <v>0.02329083415679634</v>
+        <v>3.505109652876854</v>
       </c>
       <c r="J15">
-        <v>0.23537862370722</v>
+        <v>0.308590798638761</v>
       </c>
       <c r="K15">
-        <v>0.003133087884634733</v>
+        <v>0.2206450216472149</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>230</v>
+        <v>288</v>
       </c>
       <c r="D16">
-        <v>0.06476989341899753</v>
+        <v>0.05716359475627542</v>
       </c>
       <c r="E16">
-        <v>0.4048346262425184</v>
+        <v>0.4295072588138282</v>
       </c>
       <c r="F16">
-        <v>230</v>
+        <v>288</v>
       </c>
       <c r="G16">
-        <v>0.01106627378612757</v>
+        <v>0.01554133230820298</v>
       </c>
       <c r="H16">
-        <v>0.1480235683266073</v>
+        <v>0.153966223821044</v>
       </c>
       <c r="I16">
-        <v>0.02301913383416831</v>
+        <v>0.04673767928034067</v>
       </c>
       <c r="J16">
-        <v>0.2106526510324329</v>
+        <v>0.1928111803717911</v>
       </c>
       <c r="K16">
-        <v>0.003058825852349401</v>
+        <v>0.009489653632044792</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>2122.5</v>
+        <v>286</v>
       </c>
       <c r="D17">
-        <v>0.004190559731796384</v>
+        <v>0.06609423691406846</v>
       </c>
       <c r="E17">
-        <v>1.358566005714238</v>
+        <v>0.6148002496920526</v>
       </c>
       <c r="F17">
-        <v>2122.5</v>
+        <v>286</v>
       </c>
       <c r="G17">
-        <v>0.08357526268810034</v>
+        <v>0.05318870581686497</v>
       </c>
       <c r="H17">
-        <v>0.6647536554373801</v>
+        <v>0.2309463946148753</v>
       </c>
       <c r="I17">
-        <v>0.2319433460943401</v>
+        <v>0.05702997092157602</v>
       </c>
       <c r="J17">
-        <v>0.2746008241083473</v>
+        <v>0.2314445525407791</v>
       </c>
       <c r="K17">
-        <v>0.02536946348845959</v>
+        <v>0.01239546062424779</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>301</v>
+        <v>6972</v>
       </c>
       <c r="D18">
-        <v>0.06558055151253939</v>
+        <v>0.03810702264308929</v>
       </c>
       <c r="E18">
-        <v>0.5356321719009429</v>
+        <v>7.233256386592984</v>
       </c>
       <c r="F18">
-        <v>301</v>
+        <v>6972</v>
       </c>
       <c r="G18">
-        <v>0.01487304782494903</v>
+        <v>0.3892864249646664</v>
       </c>
       <c r="H18">
-        <v>0.1723148345481604</v>
+        <v>2.43143223458901</v>
       </c>
       <c r="I18">
-        <v>0.1050033774226904</v>
+        <v>3.654112429358065</v>
       </c>
       <c r="J18">
-        <v>0.2269921824336052</v>
+        <v>0.2271735081449151</v>
       </c>
       <c r="K18">
-        <v>0.004646346671506763</v>
+        <v>0.2287985528819263</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C19">
         <v>130050</v>
       </c>
       <c r="E19">
-        <v>26.50793739664368</v>
+        <v>26.01207530265674</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A14:A19"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
